--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,95 +556,100 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>MA_break</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -653,22 +658,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14779.0</t>
+          <t>29200.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -678,27 +683,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>58.70</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>-13.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>153.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -708,52 +713,52 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14779</t>
+          <t>29200</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -763,105 +768,110 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>3349680.0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>-2117286.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>47.52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>4825</t>
+          <t>65.41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>14272</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -870,22 +880,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>4931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9597.227</t>
+          <t>59690.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -895,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21.73</t>
+          <t>50.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>-10.4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>72.5</t>
+          <t>80.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -925,160 +935,165 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>131</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9597</t>
+          <t>59690</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-68.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-3042239493.0</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>展達</t>
+          <t>7250133.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>新盛力</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>60.42</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>45.59</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>5605</t>
+          <t>31.03</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>寬頻通訊產品37.06%、人工智慧物聯網(AIOT)32.77%、無線產品20.11%、數位影音產品5.16%、其他4.91% (2023年)</t>
+          <t>5304</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>展達-通信網路業-上市</t>
+          <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>短增平</t>
         </is>
@@ -1087,22 +1102,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23595.0</t>
+          <t>9451.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1112,27 +1127,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>29.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>190.5</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1142,160 +1157,165 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23595</t>
+          <t>9451</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>10334985.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>1024165.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>合一</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>29062</t>
+          <t>112.75</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>39343</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>其他44.92%、藥品及保健品38.69%、農產品16.39% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>合一-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1304,22 +1324,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4968.943</t>
+          <t>27559.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1329,27 +1349,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>45.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>90.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1359,184 +1379,189 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>381</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>27559</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1901548176.0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>一詮</t>
+          <t>2838288.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>385.71</t>
+          <t>31.85</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>25267</t>
+          <t>88.73</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>導線架35.82%、均熱片(半導體)21.19%、直下式電視背光模組12.22%、陶瓷基板11.91%、其他10.80%、IC導線架8.06% (2023年)</t>
+          <t>29521</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>一詮-光電業-上市</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>短增平</t>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>14798.403</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1546,27 +1571,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>25.51</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>105.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1576,184 +1601,189 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>97</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>45458</t>
+          <t>14798</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>1937596925.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>皇昌</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>61.79</t>
+          <t>22.4</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>48006</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>皇昌-建材營造-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>短增平</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2385</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5563.91</t>
+          <t>46080.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1763,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>168.5</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1793,160 +1823,387 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>94</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5564</t>
+          <t>46081</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2901963577.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>華經</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>2861</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>電腦設備及系統整合62.84%、專業服務及其他13.93%、專業影像處理服務11.82%、電腦視訊產品9.40%、維修服務1.19%、電腦影像產品0.81% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>華經-資訊服務業-上市</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>資訊服務業右上</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16705.724</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>105.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16706</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>1536783593.0</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>群光</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>3007505621.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>建準</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>36.06</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>13.56</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>128069</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>電子零組件55.88%、消費性電子產品42.12%、其他2.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>群光-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>63.45</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>28848</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>建準-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,175 +481,180 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>短增量_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>diff_quote</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -658,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29200.0</t>
+          <t>24295.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,204 +688,209 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>58.70</t>
+          <t>48.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-13.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>153.5</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29200</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>132</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>24295</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2117286.0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>514261.0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
           <t>11.37</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>47.52</t>
-        </is>
-      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>65.41</t>
+          <t>49.54</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>14272</t>
+          <t>64.43</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>14876</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>25.34</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59690.0</t>
+          <t>154721.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,417 +915,427 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>50.06</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-10.4</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>80.8</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>59690</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>282</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>154721</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>7250133.0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>16187853.0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>新盛力</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>6.21</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>32.32</t>
-        </is>
-      </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>31.03</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>5304</t>
+          <t>29.77</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>5646</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
           <t>鋰電池模組100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>新盛力-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>17.92</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4904.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>80.9</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-1.08</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4743</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9451.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>513582.0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>合一</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>29.65</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>82.1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>9451</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-1.44</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>1024165.0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>合一</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>112.75</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>39343</t>
+          <t>57.44</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
+          <t>38768</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
           <t>其他44.92%、藥品及保健品38.69%、農產品16.39% (2023年)</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>合一-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>25.73</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1324,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27559.0</t>
+          <t>16258.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,195 +1369,200 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>45.67</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16.4</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90.6</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27559</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>229</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>16258</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2838288.0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>4486305.0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>威剛</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>31.85</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>29521</t>
+          <t>86.62</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
+          <t>30303</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
           <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>54.21</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1546,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>-10.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14798.403</t>
+          <t>33673.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,204 +1596,209 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>-5.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25.51</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>105.5</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14798</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>256</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>33674</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-5.79</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1937596925.0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>-2702377526.0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>皇昌</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
       <c r="AJ6" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
           <t>6.99</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>22.4</t>
-        </is>
-      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>48006</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>43228</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
           <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>皇昌-建材營造-上市</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>18.76</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>短增平</t>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46080.89</t>
+          <t>57636.475</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,12 +1823,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1808,180 +1838,185 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>42.8</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>46081</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>193</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>57636</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>2.57</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2901963577.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>6046480782.0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
       <c r="AJ7" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
           <t>7.73</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>44.46</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>46.52</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>30.86</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>電腦設備及系統整合62.84%、專業服務及其他13.93%、專業影像處理服務11.82%、電腦視訊產品9.40%、維修服務1.19%、電腦影像產品0.81% (2023年)</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>17.46</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1990,7 +2025,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2000,12 +2035,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16705.724</t>
+          <t>8450.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,195 +2050,200 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>105.5</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>106.5</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16706</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>73</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>8451</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>63.38</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>242.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3007505621.0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>3950464587.0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>建準</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
           <t>14.1</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>19.51</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>28848</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>29122</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
           <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>建準-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>電子零組件業平</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>28.96</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,180 +481,175 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>短交易量o</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量o</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Trend_change</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
@@ -663,22 +658,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>6877</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24295.0</t>
+          <t>22495.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +683,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.48</t>
+          <t>-3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>48.84</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,180 +703,175 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>104.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>22495</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-3.71</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>24295</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-17.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1956852.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>514261.0</t>
+          <t>鏵友益</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>83.6</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>49.54</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>64.43</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14876</t>
+          <t>智能自動化設備44.28%、OEM加熱設備26.28%、AOI機械視覺檢測設備24.40%、其他5.04% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>鏵友益-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
-        <is>
-          <t>25.34</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -890,22 +880,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>154721.0</t>
+          <t>26300.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,200 +905,195 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>179.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-9.26</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-5.76</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-41.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>154721</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>11.40</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-1953167.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>16187853.0</t>
+          <t>華星光</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>新盛力</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>47.11</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>136.64</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>29.77</t>
+          <t>25281</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>5646</t>
+          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>鋰電池模組100.00% (2023年)</t>
+          <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>新盛力-電腦及週邊設備業-上櫃</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1117,22 +1102,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4904.0</t>
+          <t>20632.517</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,200 +1127,195 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-4.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>75.9</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>20633</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-4.95</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>15.39</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>80.9</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4904</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-1.59</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-1.08</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-1.56</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2631248182.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>513582.0</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>合一</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>18.83</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>57.44</t>
+          <t>5057</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>38768</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>其他44.92%、藥品及保健品38.69%、農產品16.39% (2023年)</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>合一-生技醫療業-上櫃</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
-        <is>
-          <t>25.73</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1344,22 +1324,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16258.0</t>
+          <t>26486.423</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,200 +1349,195 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>26486</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-9.99</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-6.59</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-21.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>16258</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>-4921208199.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>4486305.0</t>
+          <t>聯鈞</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>31.85</t>
+          <t>69.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>189.55</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>86.62</t>
+          <t>38751</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>30303</t>
+          <t>功率半導體產品81.85%、光資訊及光通訊產品18.15% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>聯鈞-半導體業-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
-        <is>
-          <t>54.21</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1571,22 +1546,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-10.5</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33673.82</t>
+          <t>32580.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,200 +1571,195 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-5.79</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>43.46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>203.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>32580</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-1.05</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>33674</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-5.79</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-0.34</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>5265970.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-2702377526.0</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>皇昌</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>29.57</t>
+          <t>31046</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>43228</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>皇昌-建材營造-上市</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
-        <is>
-          <t>18.76</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -1798,22 +1768,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2468</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57636.475</t>
+          <t>27214.215</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,200 +1793,195 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>16.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>228.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>27214</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>57636</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>126.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9148977978.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>6046480782.0</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>華經</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>70.92</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>46.52</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>494712</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>船東95.70%、貨櫃場及碼頭2.17%、代理行1.60%、其他0.26%、船舶租賃0.26% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>電腦設備及系統整合62.84%、專業服務及其他13.93%、專業影像處理服務11.82%、電腦視訊產品9.40%、維修服務1.19%、電腦影像產品0.81% (2023年)</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>華經-資訊服務業-上市</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>249.86</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
-        <is>
-          <t>17.46</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
@@ -2025,22 +1990,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8450.52</t>
+          <t>105951.118</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,200 +2015,195 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>106.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>292</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>105951</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>269.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>5871431778.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3950464587.0</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>建準</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>25.32</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>19.51</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>26384</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>29122</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>建準-電子零組件業-上市</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22495.0</t>
+          <t>15416.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.71</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>104.5</t>
+          <t>112.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,67 +718,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22495</t>
+          <t>15416</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.71</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1956852.0</t>
+          <t>4711588.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>37.41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>4792</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -880,22 +880,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>6215</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26300.0</t>
+          <t>18524.296</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>22.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>179.5</t>
+          <t>103.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -940,67 +940,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>122</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>18524</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-299.91</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>-4.14</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-41.0</t>
+          <t>-60.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1025,72 +1025,72 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-60</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1953167.0</t>
+          <t>2973945780.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>和椿</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>47.11</t>
+          <t>49.05</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>136.64</t>
+          <t>41.68</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>25281</t>
+          <t>8569</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
+          <t>自動化系統及零組件93.53%、安全裝置系統4.94%、其他1.53% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>和椿-其他電子業-上市</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1102,22 +1102,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20632.517</t>
+          <t>19208.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,27 +1127,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.95</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>75.9</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1162,52 +1162,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>64</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>20633</t>
+          <t>19208</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.95</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>571.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1237,82 +1237,82 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2631248182.0</t>
+          <t>10809628.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.83</t>
+          <t>51.55</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>88.66</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5057</t>
+          <t>15481</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>28.76</t>
+          <t>25.34</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1324,22 +1324,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26486.423</t>
+          <t>26299.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,192 +1349,192 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31.57</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>183.5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>266.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>26299</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-1.62</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-8.92</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-6.40</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-41.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>26486</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-9.99</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-6.59</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-4921208199.0</t>
+          <t>6659311.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>聯鈞</t>
+          <t>華星光</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>69.63</t>
+          <t>48.16</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>189.55</t>
+          <t>134.6</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>38751</t>
+          <t>25844</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>功率半導體產品81.85%、光資訊及光通訊產品18.15% (2023年)</t>
+          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>聯鈞-半導體業-上市</t>
+          <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>32580.0</t>
+          <t>30391.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>-8.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>43.46</t>
+          <t>40.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>203.5</t>
+          <t>197.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1606,72 +1606,72 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>190</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>32580</t>
+          <t>30391</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>-8.37</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>5265970.0</t>
+          <t>3339422.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>28.5</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>31046</t>
+          <t>30054</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27214.215</t>
+          <t>31078.923</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,27 +1793,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>228.5</t>
+          <t>230.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1828,17 +1828,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>353</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>27214</t>
+          <t>31079</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1863,32 +1863,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>9148977978.0</t>
+          <t>19584168054.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>494712</t>
+          <t>499042</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1982,228 +1982,6 @@
         </is>
       </c>
       <c r="AR7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2328</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>105951.118</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>105951</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>5871431778.0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>廣宇</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>25.32</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>28.41</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>26384</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>廣宇-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15416.0</t>
+          <t>8795.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,114 +683,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>-6.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>39.10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>109.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>22315</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-1.66</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>112.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15416</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-02-20</t>
@@ -798,17 +798,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>4711588.0</t>
+          <t>-1800229.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>37.41</t>
+          <t>36.46</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4792</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18524.296</t>
+          <t>5497.756</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,132 +905,132 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>-4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22.48</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>103.5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-4.48</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-4.74</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-1.66</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-45.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18524</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-299.91</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-4.14</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-60.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2973945780.0</t>
+          <t>-476886560.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>49.05</t>
+          <t>47.63</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>41.68</t>
+          <t>41.64</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8569</t>
+          <t>8320</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19208.0</t>
+          <t>12464.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>38.61</t>
+          <t>25.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>166.5</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,84 +1157,84 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>-5.07</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>13043</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>19208</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2025-02-12</t>
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>10809628.0</t>
+          <t>7473216.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>51.55</t>
+          <t>51.86</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>15481</t>
+          <t>15573</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26299.0</t>
+          <t>32991.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,27 +1349,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>-4.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>46.83</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>183.5</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1379,84 +1379,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>26362</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-7.52</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-6.92</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-35.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>26299</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-1.62</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.40</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-8.92</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-6.40</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-41.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-35</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>6659311.0</t>
+          <t>16155766.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,27 +1494,27 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>48.16</t>
+          <t>49.34</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>134.6</t>
+          <t>147.99</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>25844</t>
+          <t>26337</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30391.0</t>
+          <t>12141.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-8.37</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40.54</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>198.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1601,84 +1601,84 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-2.58</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-2.58</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>30391</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-8.37</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-03-07</t>
@@ -1686,17 +1686,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3339422.0</t>
+          <t>-5888619.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>28.5</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>30054</t>
+          <t>29520</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31078.923</t>
+          <t>45853.399</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,69 +1793,69 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>230.5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>45853</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>18.62</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>230.5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>353</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>31079</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>0.03</t>
@@ -1863,17 +1863,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>19584168054.0</t>
+          <t>2592416727.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,22 +1938,22 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>249.86</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,11 +654,16 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -668,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8795.0</t>
+          <t>6351.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -683,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.37</t>
+          <t>-6.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39.10</t>
+          <t>28.23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>109.5</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -713,67 +718,67 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>22315</t>
+          <t>6351</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-6.59</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -798,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -808,7 +813,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-1800229.0</t>
+          <t>-4195242.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>89.2</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>36.46</t>
+          <t>33.63</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4515</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -874,13 +879,18 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -890,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5497.756</t>
+          <t>3791.279</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -905,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100.5</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -940,17 +950,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -960,32 +970,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>-3.96</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-4.74</t>
+          <t>-4.90</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -995,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1010,7 +1020,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1025,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-476886560.0</t>
+          <t>-2003682551.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>47.63</t>
+          <t>47.87</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>41.64</t>
+          <t>43.19</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8320</t>
+          <t>8362</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1096,13 +1106,18 @@
       <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1112,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12464.0</t>
+          <t>12545.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,67 +1142,67 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>-5.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>168.5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>176.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-5.07</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13043</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>-5.64</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1197,17 +1212,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1217,12 +1232,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1242,17 +1257,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>7473216.0</t>
+          <t>2149336.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1272,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1282,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>51.86</t>
+          <t>52.17</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>77.01</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>15573</t>
+          <t>15666</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1318,13 +1333,18 @@
       <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1334,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32991.0</t>
+          <t>16097.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1349,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.50</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>46.83</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>183.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1379,57 +1399,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>111</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>26362</t>
+          <t>16097</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-7.52</t>
+          <t>-7.28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-6.92</t>
+          <t>-6.99</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1444,7 +1464,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-35.0</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1469,12 +1489,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-35</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>16155766.0</t>
+          <t>8278517.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1494,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1504,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>49.34</t>
+          <t>48.42</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>147.99</t>
+          <t>143.62</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>26337</t>
+          <t>25844</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1540,13 +1560,18 @@
       <c r="AR5" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1556,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12141.0</t>
+          <t>29604.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-6.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1601,17 +1626,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>186</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10457</t>
+          <t>29604</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1626,12 +1651,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-6.05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1641,17 +1666,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1661,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1686,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-5888619.0</t>
+          <t>-5669658.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1726,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>29520</t>
+          <t>30283</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1762,13 +1787,18 @@
       <c r="AR6" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1778,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45853.399</t>
+          <t>21119.655</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>230.5</t>
+          <t>232.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1828,17 +1858,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>381</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>45853</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1848,12 +1878,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1863,17 +1893,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1883,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1898,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1908,17 +1938,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2592416727.0</t>
+          <t>306333528.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1938,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1948,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>499042</t>
+          <t>502290</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -1984,6 +2014,11 @@
       <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6351.0</t>
+          <t>11443.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.59</t>
+          <t>-9.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>28.23</t>
+          <t>50.87</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,52 +723,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6351</t>
+          <t>11443</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.59</t>
+          <t>-9.13</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-4195242.0</t>
+          <t>-2923831.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>83.2</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>33.63</t>
+          <t>33.42</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3791.279</t>
+          <t>11400.078</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,52 +950,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3791</t>
+          <t>11400</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.96</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-4.90</t>
+          <t>-4.93</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-39.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-2003682551.0</t>
+          <t>997797370.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>47.87</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>43.19</t>
+          <t>42.79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>8403</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-4.31</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12545.0</t>
+          <t>7616.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-5.64</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>168.5</t>
+          <t>167.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12545</t>
+          <t>7616</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.64</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2149336.0</t>
+          <t>-1286926.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>52.17</t>
+          <t>51.86</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>67.48</t>
+          <t>67.35</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>15666</t>
+          <t>15573</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-5.75</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16097.0</t>
+          <t>21563.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,132 +1369,132 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>-6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-2.97</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>16097</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>-4.09</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-2.08</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>183.5</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-7.84</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-7.16</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-27.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>16097</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-4.09</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-7.28</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-6.99</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-32.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8278517.0</t>
+          <t>-431037.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,102 +1581,102 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>-4.76</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14675.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-4.76</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29604.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-6.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-2.82</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>198.5</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>126</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>29604</t>
+          <t>14675</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.05</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-5669658.0</t>
+          <t>-6455229.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>37.65</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>30283</t>
+          <t>28834</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21119.655</t>
+          <t>16952.209</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>232.0</t>
+          <t>228.5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>314</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>21120</t>
+          <t>16952</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,32 +1893,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>306333528.0</t>
+          <t>11382069793.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>502290</t>
+          <t>494712</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>8111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11443.0</t>
+          <t>77667.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-9.13</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50.87</t>
+          <t>82.71</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,67 +723,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>126</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11443</t>
+          <t>77667</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-9.13</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>225.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -808,22 +808,22 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2923831.0</t>
+          <t>11330365.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>鏵友益</t>
+          <t>立碁</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -833,47 +833,47 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>83.2</t>
+          <t>70.99</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>33.42</t>
+          <t>82.56</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>智能自動化設備44.28%、OEM加熱設備26.28%、AOI機械視覺檢測設備24.40%、其他5.04% (2023年)</t>
+          <t>LED模組產品56.43%、其他31.03%、半導體業-IC產品及IC其他12.54% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>鏵友益-其他電子業-上櫃</t>
+          <t>立碁-光電業-上櫃</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>20.64</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -895,212 +895,212 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>8033</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31535.666</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>71.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>31536</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>0.49</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11400.078</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2564153379.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>雷虎</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-4.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-2.26</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>13.84</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>101.5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>11400</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-4.41</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-4.93</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-39.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>-39</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>997797370.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>和椿</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>42.79</t>
+          <t>35.45</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8403</t>
+          <t>10913</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>自動化系統及零組件93.53%、安全裝置系統4.94%、其他1.53% (2023年)</t>
+          <t>無人載具暨模型產品60.33%、口腔醫療器材30.70%、無菌包材6.09%、其他2.88% (2023年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>和椿-其他電子業-上市</t>
+          <t>雷虎-其他-上市</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7616.0</t>
+          <t>34505.897</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>67.23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>167.5</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,37 +1177,37 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7616</t>
+          <t>34506</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1217,27 +1217,27 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1252,27 +1252,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-1286926.0</t>
+          <t>3394548099.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>宏致</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>51.86</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>67.35</t>
+          <t>32.31</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>15573</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.75</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21563.0</t>
+          <t>44027.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-6.07</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.97</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,112 +1399,112 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>146</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>16097</t>
+          <t>44027</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-7.84</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-7.16</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>179.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-431037.0</t>
+          <t>4711896.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>精確</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1514,47 +1514,47 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>48.42</t>
+          <t>107.22</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>143.62</t>
+          <t>87.18</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>25844</t>
+          <t>7552</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>光通訊主動元件模組92.50%、晶粒4.58%、其他2.92% (2023年)</t>
+          <t>鋁合金材料及零件88.18%、泡棉膠帶11.82% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>華星光-通信網路業-上櫃</t>
+          <t>精確-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>21.18</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-4.76</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14675.0</t>
+          <t>33392.241</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,192 +1596,192 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>-6.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-4.76</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>73.46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>189.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>33392</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-6.05</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>3216697609.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>14675</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-6.08</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-42.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>-6455229.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>順達</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>37.65</t>
+          <t>85.5</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>28834</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16952.209</t>
+          <t>84289.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>41.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>228.5</t>
+          <t>42.25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,27 +1858,27 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>265</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16952</t>
+          <t>84289</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1888,37 +1888,37 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,37 +1928,37 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>11382069793.0</t>
+          <t>-2765775828.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17.96</t>
+          <t>183.86</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>494712</t>
+          <t>130917</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>船東95.70%、貨櫃場及碼頭2.17%、代理行1.60%、其他0.26%、船舶租賃0.26% (2023年)</t>
+          <t>記憶體(千顆)99.65%、其他0.35% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>南亞科-半導體業-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>53.27</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77667.0</t>
+          <t>151177.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,114 +688,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>82.71</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>151177</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>77667</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>225.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-03-12</t>
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>11330365.0</t>
+          <t>20522392.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>75.71</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>82.56</t>
+          <t>83.13</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31535.666</t>
+          <t>13457.499</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>46.43</t>
+          <t>19.81</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>70.7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,52 +950,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>31536</t>
+          <t>13457</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2564153379.0</t>
+          <t>907951348.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>141.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>35.58</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>10913</t>
+          <t>10791</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34505.897</t>
+          <t>40648.646</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>67.23</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>68.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>118</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>34506</t>
+          <t>40649</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,77 +1197,77 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3394548099.0</t>
+          <t>5712346574.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.31</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9307</t>
+          <t>9761</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44027.0</t>
+          <t>36173.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>82.16</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,67 +1404,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>124</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>44027</t>
+          <t>36173</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>179.0</t>
+          <t>224.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>4711896.0</t>
+          <t>6352052.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>107.22</t>
+          <t>112.59</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>87.18</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>7552</t>
+          <t>7930</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33392.241</t>
+          <t>22454.489</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.05</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>49.40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>65.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,52 +1631,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>33392</t>
+          <t>22454</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.05</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>3216697609.0</t>
+          <t>4082893691.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>85.5</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84289.27</t>
+          <t>153168.715</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>41.36</t>
+          <t>75.17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>42.25</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,52 +1858,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>714</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>84289</t>
+          <t>153169</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-2765775828.0</t>
+          <t>8109518424.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>183.86</t>
+          <t>187.65</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>130917</t>
+          <t>142692</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>151177.0</t>
+          <t>47235.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>139</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>151177</t>
+          <t>47235</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>332.0</t>
+          <t>320.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>20522392.0</t>
+          <t>11843295.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>75.71</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>82.69</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7517</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13457.499</t>
+          <t>23562.239</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>-4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19.81</t>
+          <t>34.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70.7</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,52 +950,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>125</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13457</t>
+          <t>23562</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>-4.82</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,17 +1005,17 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>907951348.0</t>
+          <t>-409935733.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>141.4</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>10791</t>
+          <t>10760</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1117,157 +1117,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-2.79</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17316.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>17316</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>2025-03-20</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3605</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40648.646</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>68.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>40649</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>226.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>5712346574.0</t>
+          <t>3855886946.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9761</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36173.0</t>
+          <t>25001.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,114 +1369,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>56.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>61.8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>60.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>25001</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-1.20</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>36173</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>224.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-03-18</t>
@@ -1484,17 +1484,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>6352052.0</t>
+          <t>6287468.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>112.59</t>
+          <t>114.44</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>7930</t>
+          <t>8061</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22454.489</t>
+          <t>37186.458</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>49.40</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>65.2</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,52 +1631,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>22454</t>
+          <t>37186</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>4082893691.0</t>
+          <t>971523036.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>5393</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>-3.17</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>153168.715</t>
+          <t>96601.004</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>75.17</t>
+          <t>47.41</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>389</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>153169</t>
+          <t>96601</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>8109518424.0</t>
+          <t>6070498724.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>187.65</t>
+          <t>187.04</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>142692</t>
+          <t>138199</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-6.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47235.0</t>
+          <t>6015.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31.24</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,52 +723,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>47235</t>
+          <t>6015</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>320.0</t>
+          <t>304.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>11843295.0</t>
+          <t>6582903.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>69.56</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>81.56</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>6906</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23562.239</t>
+          <t>30268.683</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>34.69</t>
+          <t>44.57</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>71.9</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>199</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>23562</t>
+          <t>30269</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,32 +970,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.82</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-409935733.0</t>
+          <t>-436745765.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>143.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.41</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>10760</t>
+          <t>10974</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17316.01</t>
+          <t>12400.626</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>66.9</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>12401</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,32 +1197,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>3855886946.0</t>
+          <t>770148564.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9279</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25001.0</t>
+          <t>14757.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>56.79</t>
+          <t>33.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>25001</t>
+          <t>14757</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,32 +1424,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>263.0</t>
+          <t>238.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>6287468.0</t>
+          <t>2852376.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>114.44</t>
+          <t>113.7</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>85.39</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>8061</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37186.458</t>
+          <t>23724.152</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>81.80</t>
+          <t>52.19</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>37186</t>
+          <t>23724</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1651,32 +1651,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>971523036.0</t>
+          <t>501382901.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>82.93</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>5552</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96601.004</t>
+          <t>66183.075</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-6.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>47.41</t>
+          <t>32.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>372</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>96601</t>
+          <t>66183</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-6.38</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>6070498724.0</t>
+          <t>-395872236.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>187.04</t>
+          <t>182.96</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>138199</t>
+          <t>131072</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-6.15</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6015.0</t>
+          <t>3205.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6015</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -743,32 +743,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-3.28</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>304.0</t>
+          <t>191.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>6582903.0</t>
+          <t>-3776021.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>69.56</t>
+          <t>66.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>6906</t>
+          <t>6633</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -883,14 +883,14 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30268.683</t>
+          <t>23068.681</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.57</t>
+          <t>33.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>71.9</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +950,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>122</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>30269</t>
+          <t>23069</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-436745765.0</t>
+          <t>2175477638.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>143.8</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>10974</t>
+          <t>11188</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12400.626</t>
+          <t>7719.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,32 +1177,32 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12401</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-4.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>770148564.0</t>
+          <t>-2483298076.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9279</t>
+          <t>9037</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14757.0</t>
+          <t>13936.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>33.52</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14757</t>
+          <t>13936</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>238.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2852376.0</t>
+          <t>1504140.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>113.7</t>
+          <t>114.44</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>8061</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23724.152</t>
+          <t>12350.058</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>52.19</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1631,52 +1631,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>23724</t>
+          <t>12350</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>501382901.0</t>
+          <t>-1696731736.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>82.87</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5552</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1791,14 +1791,14 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-5.16</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66183.075</t>
+          <t>47991.748</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>-7.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>32.48</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>40.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>364</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>66183</t>
+          <t>47992</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>-7.01</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,17 +1893,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-395872236.0</t>
+          <t>-9210144124.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>182.96</t>
+          <t>183.97</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>131072</t>
+          <t>125959</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -663,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.94</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3205.0</t>
+          <t>2393.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -723,27 +733,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-3.15</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -753,22 +763,22 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -778,12 +788,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>191.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -793,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -803,17 +813,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-3776021.0</t>
+          <t>-722419.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -833,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,45 +853,55 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>66.81</t>
+          <t>66.26</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>33.58%</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>9.12%</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>81.74</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>6633</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>LED模組產品56.43%、其他31.03%、半導體業-IC產品及IC其他12.54% (2023年)</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>6579</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>LED模組產品57.59%、其他產品23.90%、半導體產品18.51% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>立碁-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>12.87</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -890,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23068.681</t>
+          <t>2541.432</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>33.96</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,17 +970,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>23069</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,12 +990,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -985,17 +1005,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1005,12 +1025,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,7 +1040,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1030,17 +1050,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2175477638.0</t>
+          <t>3691534895.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1070,54 +1090,64 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>146.6</t>
+          <t>141.2</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>35.75%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>11188</t>
+          <t>-7.36%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>10776</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>無人載具暨模型產品60.33%、口腔醫療器材30.70%、無菌包材6.09%、其他2.88% (2023年)</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>雷虎-其他-上市</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>其他右上</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7719.11</t>
+          <t>5676.794</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1177,17 +1207,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>5677</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1197,12 +1227,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.08</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1212,17 +1242,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,7 +1277,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1257,17 +1287,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-2483298076.0</t>
+          <t>-947850200.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1287,7 +1317,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,45 +1327,55 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
           <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>宏致-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>43.45</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1344,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-10.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13936.0</t>
+          <t>9169.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-7.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1404,67 +1444,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>9169</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-7.54</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1474,7 +1514,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1484,17 +1524,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1504140.0</t>
+          <t>-576812.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1514,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,54 +1564,64 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>114.44</t>
+          <t>103.15</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>8061</t>
+          <t>6.39%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>鋁合金材料及零件88.18%、泡棉膠帶11.82% (2023年)</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>7265</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>鋁合金材料及零件100.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>精確-電機機械-上櫃</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>21.18</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12350.058</t>
+          <t>11658.602</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27.17</t>
+          <t>25.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1636,12 +1686,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1651,32 +1701,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1686,12 +1736,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1711,17 +1761,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-1696731736.0</t>
+          <t>1516172364.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1756,49 +1806,59 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>82.87</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
           <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>銘旺科-光電業-上市</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>11.02</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47991.748</t>
+          <t>48705.435</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-7.01</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>40.65</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1858,17 +1918,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>273</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>47992</t>
+          <t>48705</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1878,12 +1938,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-7.01</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1893,17 +1953,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1913,7 +1973,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1948,7 +2008,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-9210144124.0</t>
+          <t>-2814646642.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1983,40 +2043,50 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>183.97</t>
+          <t>-10.56%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>125959</t>
+          <t>-42.76%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
+          <t>184.39</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>129213</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
           <t>記憶體(千顆)99.65%、其他0.35% (2023年)</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>南亞科-半導體業-上市</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>53.27</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2393.0</t>
+          <t>3401.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,52 +733,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.15</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-722419.0</t>
+          <t>-540803.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>63.08</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>-4.43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2541.432</t>
+          <t>2507.142</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -970,62 +970,62 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>3691534895.0</t>
+          <t>1314056122.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>141.2</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>34.19</t>
+          <t>33.69</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10776</t>
+          <t>10302</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-3.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5676.794</t>
+          <t>5111.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1172,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.87</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1207,52 +1207,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-947850200.0</t>
+          <t>-453618341.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-10.18</t>
+          <t>-5.61</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9169.0</t>
+          <t>10556.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-7.54</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1444,52 +1444,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9169</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-7.54</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-576812.0</t>
+          <t>-232633.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>103.15</t>
+          <t>97.59</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7265</t>
+          <t>6874</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11658.602</t>
+          <t>9552.133</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25.65</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1681,52 +1681,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1761,17 +1761,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1516172364.0</t>
+          <t>-643583801.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>48705.435</t>
+          <t>49402.746</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,164 +1883,164 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>24.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>49403</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>41.7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>48705</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2146695057.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>南亞科</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>-2814646642.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>南亞科</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
           <t>-10.56%</t>
@@ -2053,12 +2053,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>129213</t>
+          <t>130142</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,11 +669,16 @@
           <t>flag</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3401.0</t>
+          <t>2793.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -753,47 +758,47 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -818,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-540803.0</t>
+          <t>-501922.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -843,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -853,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>61.54</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -868,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>82.19</t>
+          <t>70.41</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -904,13 +909,18 @@
       <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>** LED照明產業 - 封裝/模組、燈具/應用</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-4.43</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2507.142</t>
+          <t>1718.337</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>67.5</t>
+          <t>68.4</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -970,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1025,7 +1035,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1314056122.0</t>
+          <t>-235257374.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>136.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1105,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>33.69</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10302</t>
+          <t>10440</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1141,13 +1151,18 @@
       <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-4.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5111.19</t>
+          <t>4682.886</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1207,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4683</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-453618341.0</t>
+          <t>-236434315.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1317,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1342,17 +1357,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>8498</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>連接器54.61%、金屬沖壓製品19.12%、連接線組18.61%、其他7.66% (2023年)</t>
+          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1378,13 +1393,18 @@
       <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.61</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10556.0</t>
+          <t>8225.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>18.68</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1444,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10556</t>
+          <t>8225</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1499,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1529,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-232633.0</t>
+          <t>-650795.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1554,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1564,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>97.59</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1579,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>82.7</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6874</t>
+          <t>6978</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1615,13 +1635,18 @@
       <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 其他電腦及週邊設備** 電機機械 - 金屬加工用機械** 汽車 - 其他** 醫療器材 - 電子零組件、塑膠零件、五金零件、塑化材料、金屬零件</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9552.133</t>
+          <t>6408.642</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1666,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1681,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1701,32 +1726,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1736,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1751,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1761,17 +1786,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-643583801.0</t>
+          <t>556196021.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1816,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5385</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1852,13 +1877,18 @@
       <c r="AU6" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49402.746</t>
+          <t>35898.538</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>-4.43</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1918,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>273</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>49403</t>
+          <t>35899</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-5.58</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1973,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2003,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2146695057.0</t>
+          <t>2664660001.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2053,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>181.53</t>
+          <t>173.06</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>130142</t>
+          <t>124875</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2089,6 +2119,11 @@
       <c r="AU7" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2793.0</t>
+          <t>2460.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-3.85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,27 +808,27 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-501922.0</t>
+          <t>-511317.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>61.54</t>
+          <t>55.16</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>70.41</t>
+          <t>69.18</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5477</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1718.337</t>
+          <t>2138.731</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>67.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-235257374.0</t>
+          <t>68887005.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>136.8</t>
+          <t>134.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.65</t>
+          <t>32.11</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10440</t>
+          <t>10257</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4682.886</t>
+          <t>5533.993</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,22 +1297,22 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-236434315.0</t>
+          <t>-904485727.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>23.29</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8225.0</t>
+          <t>11424.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18.68</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8225</t>
+          <t>11424</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-650795.0</t>
+          <t>770937.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>99.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>82.7</t>
+          <t>80.55</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6978</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-5.57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6408.642</t>
+          <t>7892.538</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>-8.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>7893</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>-8.13</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1786,17 +1786,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>556196021.0</t>
+          <t>-532172487.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>-21.03%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>79.18</t>
+          <t>84.99</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>5385</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35898.538</t>
+          <t>36040.403</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-4.43</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>157</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>35899</t>
+          <t>36040</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-5.58</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,24 +2003,24 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2664660001.0</t>
+          <t>-1753574501.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,17 +2083,17 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>173.06</t>
+          <t>164.67</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>124875</t>
+          <t>118677</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>記憶體(千顆)99.65%、其他0.35% (2023年)</t>
+          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2460.0</t>
+          <t>911.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.85</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>911</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-511317.0</t>
+          <t>55528.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>55.16</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>60.58</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4462</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>-8.85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2138.731</t>
+          <t>3416.343</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-25.36</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>68887005.0</t>
+          <t>-284526834.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>134.4</t>
+          <t>108.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.11</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>10257</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>無人載具暨模型產品60.33%、口腔醫療器材30.70%、無菌包材6.09%、其他2.88% (2023年)</t>
+          <t>無人載具暨遙控模型產品65.94%、口腔醫療23.31%、無菌包材8.65%、其他1.63%、鋁船類產品0.48% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-11.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5533.993</t>
+          <t>1285.431</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,114 +1187,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-2.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-4.96</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5534</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-904485727.0</t>
+          <t>-220771210.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>23.29</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>6476</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>-10.99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11424.0</t>
+          <t>2382.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,114 +1429,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-5.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>53.8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2382</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-5.26</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>11424</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-2.02</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>770937.0</t>
+          <t>-430121.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>99.63</t>
+          <t>79.17</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>67.28</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-5.57</t>
+          <t>-11.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7892.538</t>
+          <t>521.943</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,102 +1671,102 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-8.13</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>48.45</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7893</t>
+          <t>522</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-8.13</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,27 +1776,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-532172487.0</t>
+          <t>593644718.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>69.65</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>-9.89</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36040.403</t>
+          <t>67787.477</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-9.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>33.27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>33.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,67 +1948,67 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>316</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>36040</t>
+          <t>67787</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-9.53</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-1753574501.0</t>
+          <t>-566958346.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>164.67</t>
+          <t>135.24</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>118677</t>
+          <t>103959</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>911.0</t>
+          <t>4660.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-22.85</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>55528.0</t>
+          <t>62588.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>44.51</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.58</t>
+          <t>60.37</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-8.85</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3416.343</t>
+          <t>783.027</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,57 +980,57 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>783</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-25.36</t>
+          <t>-2.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-3.06</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-284526834.0</t>
+          <t>-262715991.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>108.6</t>
+          <t>107.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.67</t>
+          <t>27.59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8288</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-11.02</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1285.431</t>
+          <t>4215.907</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.54</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,52 +1222,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-4.24</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-220771210.0</t>
+          <t>-162466750.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>18.66</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6476</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-10.99</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2382.0</t>
+          <t>865.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-5.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.85</t>
+          <t>-4.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.75</t>
+          <t>42.35</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>865</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-5.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>-0.14</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-430121.0</t>
+          <t>-294250.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>67.28</t>
+          <t>66.25</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>5524</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-11.04</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>521.943</t>
+          <t>6512.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-9.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>1.15</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>48.45</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-9.71</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>593644718.0</t>
+          <t>256239679.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.65</t>
+          <t>69.03</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-9.89</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>67787.477</t>
+          <t>7839.275</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,114 +1913,114 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-9.53</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33.27</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>33.2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>33.55</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7839</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-21.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>67787</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-9.53</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-1.03</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-566958346.0</t>
+          <t>-3494242054.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>135.24</t>
+          <t>134.18</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>103959</t>
+          <t>102874</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>-9.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4660.0</t>
+          <t>7934.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>66</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>7934</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-22.85</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>-3.21</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>62588.0</t>
+          <t>-191161.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>40.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>783.027</t>
+          <t>1251.097</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-2.10</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.06</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-262715991.0</t>
+          <t>-11775680.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>107.4</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.59</t>
+          <t>27.61</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4215.907</t>
+          <t>4897.137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,22 +1187,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,37 +1237,37 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.24</t>
+          <t>-4.59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-162466750.0</t>
+          <t>-308324284.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.03</t>
+          <t>24.27</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>865.0</t>
+          <t>3042.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-4.16</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.35</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-5.83</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-294250.0</t>
+          <t>-315588.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>76.11</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>66.25</t>
+          <t>65.19</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5361</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-8.72</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6512.2</t>
+          <t>4656.957</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-9.71</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-9.71</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>256239679.0</t>
+          <t>95887110.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.03</t>
+          <t>69.16</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7839.275</t>
+          <t>78901.108</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>38.72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>340</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7839</t>
+          <t>78901</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,37 +1963,37 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>-35.89</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-3494242054.0</t>
+          <t>-3714465399.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>134.18</t>
+          <t>135.77</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>102874</t>
+          <t>102255</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.33</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7934.0</t>
+          <t>9855.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-7.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7934</t>
+          <t>9855</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-7.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-3.65</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>-63.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-191161.0</t>
+          <t>282261.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>40.77</t>
+          <t>41.65</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1251.097</t>
+          <t>1382.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,32 +980,32 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1015,32 +1015,32 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-11775680.0</t>
+          <t>189959620.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.61</t>
+          <t>28.08</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8471</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,129 +1172,129 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4026.887</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4897.137</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>43.1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.66</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-4.69</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-24.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4897</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-4.59</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>46.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-308324284.0</t>
+          <t>161541084.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>24.81</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>6655</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3042.0</t>
+          <t>3155.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-2.87</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>41.65</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>-3.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-5.83</t>
+          <t>-15.62</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-315588.0</t>
+          <t>46285.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>76.11</t>
+          <t>77.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5361</t>
+          <t>5432</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-8.72</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4656.957</t>
+          <t>2326.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>44.15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,79 +1706,79 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>95887110.0</t>
+          <t>219014612.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,17 +1841,17 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.16</t>
+          <t>70.96</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>光學面板95.45%、其他4.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78901.108</t>
+          <t>63418.827</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.72</t>
+          <t>31.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>234</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>78901</t>
+          <t>63419</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-35.89</t>
+          <t>-4.65</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-3714465399.0</t>
+          <t>-84931532.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>135.77</t>
+          <t>140.05</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>102255</t>
+          <t>109072</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9855.0</t>
+          <t>8738.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,114 +703,114 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-7.12</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>41.65</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>8738</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-3.65</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-81.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>37.9</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9855</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-7.12</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>-2.12</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-3.65</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-63.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>0</t>
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-81</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>282261.0</t>
+          <t>446126.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>41.65</t>
+          <t>45.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1382.98</t>
+          <t>3833.664</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>189959620.0</t>
+          <t>383608479.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>122.2</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.08</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>9326</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4026.887</t>
+          <t>4612.514</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.69</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.13</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-37</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>161541084.0</t>
+          <t>195571732.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>20.28</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3155.0</t>
+          <t>3876.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.87</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.65</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,67 +1464,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3155</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-15.62</t>
+          <t>-3.03</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>46285.0</t>
+          <t>180776.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>77.13</t>
+          <t>82.22</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>68.08</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>5791</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2326.34</t>
+          <t>7802.448</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.15</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,32 +1706,32 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>7802</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>219014612.0</t>
+          <t>289235909.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>70.96</t>
+          <t>75.21</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63418.827</t>
+          <t>65479.539</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-6.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31.12</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>34.55</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>305</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>63419</t>
+          <t>65480</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-6.37</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-4.65</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-31.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-84931532.0</t>
+          <t>-2652301376.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>140.05</t>
+          <t>146.95</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>109072</t>
+          <t>107058</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8738.0</t>
+          <t>32123.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>-4.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41.65</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>65</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8738</t>
+          <t>32123</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>-4.33</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.65</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-72.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-81.0</t>
+          <t>-76.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-81</t>
+          <t>-76</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>446126.0</t>
+          <t>-627350.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>45.77</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3833.664</t>
+          <t>7856.073</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-6.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3834</t>
+          <t>7856</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-6.17</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-39.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>383608479.0</t>
+          <t>816811536.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>122.2</t>
+          <t>123.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.92</t>
+          <t>28.55</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9326</t>
+          <t>9387</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4612.514</t>
+          <t>11349.787</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,52 +1222,52 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>11350</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-42.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>195571732.0</t>
+          <t>947868155.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>25.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>-5.56</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3876.0</t>
+          <t>3069.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>-4.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>-4.77</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-3.03</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>180776.0</t>
+          <t>172940.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>77.69</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>69.51</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5791</t>
+          <t>5472</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>-6.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7802.448</t>
+          <t>3235.774</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-6.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-1.60</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-6.48</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>289235909.0</t>
+          <t>325450489.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1882,248 +1882,6 @@
       <c r="AV6" t="inlineStr">
         <is>
           <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-1.81</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>65479.539</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-6.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>32.13</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>34.55</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>65480</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-6.37</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-1.96</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-31.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>-2652301376.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>南亞科</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>-10.56%</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>-42.76%</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>146.95</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>107058</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>南亞科-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>半導體業右下</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>53.27</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32123.0</t>
+          <t>8981.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.33</t>
+          <t>-2.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>40.25</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>32123</t>
+          <t>8981</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.33</t>
+          <t>-2.97</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>-3.66</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-72.0</t>
+          <t>-62.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-76.0</t>
+          <t>-75.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-75</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-627350.0</t>
+          <t>-1378139.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>44.23</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-3.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7856.073</t>
+          <t>4920.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-6.17</t>
+          <t>-7.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7856</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-6.17</t>
+          <t>-7.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-39.0</t>
+          <t>-38.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-64.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>816811536.0</t>
+          <t>434851474.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>118.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.55</t>
+          <t>28.38</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9387</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11349.787</t>
+          <t>7236.498</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11350</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-42.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>947868155.0</t>
+          <t>1114993573.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.15</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7190</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.56</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3069.0</t>
+          <t>1854.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-4.77</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>40.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.77</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-50</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>172940.0</t>
+          <t>-36658.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>77.69</t>
+          <t>75.83</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>69.48</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>5341</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-6.6</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3235.774</t>
+          <t>2380.306</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.48</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.75</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.48</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-47.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>325450489.0</t>
+          <t>117099258.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>73.09</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1882,6 +1882,248 @@
       <c r="AV6" t="inlineStr">
         <is>
           <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.97</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65164.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>65164</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-3.25</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-32.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-32</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>-6443670186.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>南亞科</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>-10.56%</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>-42.76%</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>144.82</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>99466</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>南亞科-半導體業-上市</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>半導體業右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8981.0</t>
+          <t>7350.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-1.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.25</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8981</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -763,27 +763,27 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>-3.64</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-62.0</t>
+          <t>-75.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-75.0</t>
+          <t>-74.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-75</t>
+          <t>-74</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-1378139.0</t>
+          <t>-1430420.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.23</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4920.74</t>
+          <t>1902.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-7.94</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-7.94</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-64.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-65</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>434851474.0</t>
+          <t>313678750.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>118.4</t>
+          <t>119.2</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>9097</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7236.498</t>
+          <t>7841.302</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>48.35</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,67 +1222,67 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7236</t>
+          <t>7841</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-3.79</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-46.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-46</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1114993573.0</t>
+          <t>522976095.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7190</t>
+          <t>7094</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1854.0</t>
+          <t>3054.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>40.95</t>
+          <t>42.75</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-36658.0</t>
+          <t>-77712.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>75.83</t>
+          <t>79.17</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.48</t>
+          <t>69.91</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5341</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2380.306</t>
+          <t>1726.621</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,32 +1726,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-5.13</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-60.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-60</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>117099258.0</t>
+          <t>-331767589.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>65164.29</t>
+          <t>111705.373</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31.98</t>
+          <t>54.82</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>205</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>65164</t>
+          <t>111705</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-32.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-6443670186.0</t>
+          <t>-282857408.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>144.82</t>
+          <t>144.02</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>99466</t>
+          <t>109382</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7350.0</t>
+          <t>10340.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.97</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>10340</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.97</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-3.09</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-75.0</t>
+          <t>-85.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-74.0</t>
+          <t>-71.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-74</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-1430420.0</t>
+          <t>410057.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>41.26</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4408</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1902.53</t>
+          <t>1662.533</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-4.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-67.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>313678750.0</t>
+          <t>-78016382.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>119.2</t>
+          <t>113.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.47</t>
+          <t>27.85</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9097</t>
+          <t>8669</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>其他右下</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7841.302</t>
+          <t>4546.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,102 +1187,102 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>47.7</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7841</t>
+          <t>4546</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.79</t>
+          <t>-3.78</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-46.0</t>
+          <t>-49.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-46</t>
+          <t>-49</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>522976095.0</t>
+          <t>-762406350.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>19.33</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7094</t>
+          <t>6640</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3054.0</t>
+          <t>4883.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42.75</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1469,47 +1469,47 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>4883</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-64.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-77712.0</t>
+          <t>139456.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>75.19</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.91</t>
+          <t>67.32</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>5295</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1726.621</t>
+          <t>2957.626</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,62 +1671,62 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-6.22</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-3.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>43.2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>44.15</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-6.22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1736,37 +1736,37 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-5.13</t>
+          <t>-3.64</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-60.0</t>
+          <t>-62.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-62</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-331767589.0</t>
+          <t>2841094.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>72.85</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>111705.373</t>
+          <t>296891.279</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>54.82</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>368</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>111705</t>
+          <t>296891</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>-1.69</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,27 +2018,27 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-282857408.0</t>
+          <t>23395002628.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>144.02</t>
+          <t>134.67</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>109382</t>
+          <t>121931</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10340.0</t>
+          <t>10025.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-4.38</t>
+          <t>-3.65</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,67 +738,67 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10340</t>
+          <t>10025</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-85.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-71.0</t>
+          <t>-70.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>410057.0</t>
+          <t>514066.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>41.26</t>
+          <t>44.07</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1662.533</t>
+          <t>2067.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-4.44</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,47 +980,47 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>2068</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-1.90</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-67.0</t>
+          <t>-66.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-78016382.0</t>
+          <t>-72169420.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>113.6</t>
+          <t>115.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8669</t>
+          <t>8822</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4546.47</t>
+          <t>2756.942</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,47 +1242,47 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.78</t>
+          <t>-3.58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-49.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-49</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-762406350.0</t>
+          <t>-257161676.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6640</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4883.0</t>
+          <t>4011.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4883</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-64.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-65</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>139456.0</t>
+          <t>178368.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>67.32</t>
+          <t>68.52</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2957.626</t>
+          <t>4261.376</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.22</t>
+          <t>-8.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.44</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>43.15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,27 +1706,27 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-6.22</t>
+          <t>-8.11</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1736,22 +1736,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.85</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-62.0</t>
+          <t>-64.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-62</t>
+          <t>-64</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2841094.0</t>
+          <t>-111313990.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,157 +1888,157 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224992.356</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>38.6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>224992</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-7.90</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>296891.279</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-1.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>368</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>296891</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-1.69</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>23395002628.0</t>
+          <t>10582722237.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>134.67</t>
+          <t>142.58</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>121931</t>
+          <t>119607</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10025.0</t>
+          <t>6106.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.65</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10025</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>-3.60</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-70.0</t>
+          <t>-69.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-69</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>514066.0</t>
+          <t>556466.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.07</t>
+          <t>43.41</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2067.53</t>
+          <t>1388.882</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2068</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-66.0</t>
+          <t>-67.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-72169420.0</t>
+          <t>-55423297.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>115.6</t>
+          <t>115.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8822</t>
+          <t>8807</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2756.942</t>
+          <t>1824.319</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>46.05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,32 +1257,32 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>-3.42</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>-3.58</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-3.62</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-55.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-55</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-257161676.0</t>
+          <t>-161637244.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>6848</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4011.0</t>
+          <t>8299.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,114 +1429,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-3.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>-2.64</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>43.1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8299</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-3.36</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>-2.36</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-2.07</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-69.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>42.3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4011</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-2.55</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-2.00</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>-69</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>178368.0</t>
+          <t>733861.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>78.33</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>68.52</t>
+          <t>69.54</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>5622</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4261.376</t>
+          <t>3564.874</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-8.11</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>-3.73</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.15</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,32 +1726,32 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-8.11</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-64.0</t>
+          <t>-67.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-64</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-111313990.0</t>
+          <t>-164242566.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>224992.356</t>
+          <t>133304.712</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-7.90</t>
+          <t>-4.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>44.90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>353</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>224992</t>
+          <t>133305</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-7.90</t>
+          <t>-4.26</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>10582722237.0</t>
+          <t>-2298082949.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>142.58</t>
+          <t>141.67</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>119607</t>
+          <t>115889</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6106.0</t>
+          <t>6117.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-3.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,52 +738,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.86</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.60</t>
+          <t>-3.39</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.29</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-69.0</t>
+          <t>-68.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-68</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>556466.0</t>
+          <t>409635.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>43.41</t>
+          <t>44.18</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1388.882</t>
+          <t>6439.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>6440</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-67.0</t>
+          <t>-63.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-63</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-55423297.0</t>
+          <t>430855527.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>120.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.62</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8807</t>
+          <t>9188</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1824.319</t>
+          <t>1687.397</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.05</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1227,62 +1227,62 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.58</t>
+          <t>-3.50</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-55.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-161637244.0</t>
+          <t>123906418.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6848</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8299.0</t>
+          <t>3646.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.64</t>
+          <t>-3.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>43.15</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-69.0</t>
+          <t>-71.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>733861.0</t>
+          <t>691856.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>79.91</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.54</t>
+          <t>70.89</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5628</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3564.874</t>
+          <t>4050.315</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3.73</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3565</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-67.0</t>
+          <t>-71.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-164242566.0</t>
+          <t>157140722.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>72.34</t>
+          <t>74.13</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>133304.712</t>
+          <t>115438.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.26</t>
+          <t>-4.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>44.90</t>
+          <t>38.88</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,52 +1948,52 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>348</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>133305</t>
+          <t>115439</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.26</t>
+          <t>-4.73</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-2298082949.0</t>
+          <t>-18401694035.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>141.67</t>
+          <t>143.66</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>115889</t>
+          <t>114649</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6117.0</t>
+          <t>7253.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,87 +703,87 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.86</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-3.44</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>40.2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>7253</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.86</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>-2.87</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-68.0</t>
+          <t>-66.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-68</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>409635.0</t>
+          <t>320216.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>44.18</t>
+          <t>48.57</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6439.57</t>
+          <t>4003.875</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.63</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,57 +980,57 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-63.0</t>
+          <t>-60.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-63</t>
+          <t>-60</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>430855527.0</t>
+          <t>556429787.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>120.4</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>29.17</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9188</t>
+          <t>9539</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1687.397</t>
+          <t>1850.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,32 +1242,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-54.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-54</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>123906418.0</t>
+          <t>83194503.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3646.0</t>
+          <t>2120.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>43.15</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,52 +1464,52 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-2.17</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-71.0</t>
+          <t>-69.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-69</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>691856.0</t>
+          <t>616119.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>79.91</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>70.89</t>
+          <t>71.26</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5628</t>
+          <t>5765</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4050.315</t>
+          <t>2116.251</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-71.0</t>
+          <t>-70.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-70</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>157140722.0</t>
+          <t>457883122.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>74.13</t>
+          <t>75.89</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4028</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>115438.84</t>
+          <t>43183.312</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.73</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.88</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>223</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>115439</t>
+          <t>43183</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.73</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,22 +2003,22 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-18401694035.0</t>
+          <t>-7841219483.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>143.66</t>
+          <t>146.15</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>114649</t>
+          <t>114959</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7253.0</t>
+          <t>3652.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,77 +738,77 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7253</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.87</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-66.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-65</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>320216.0</t>
+          <t>741361.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>48.57</t>
+          <t>53.41</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>5302</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4003.875</t>
+          <t>7810.013</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,52 +945,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>62.5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,32 +1000,32 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,22 +1035,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-60.0</t>
+          <t>-56.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>556429787.0</t>
+          <t>1131310680.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>127.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1850.73</t>
+          <t>2838.038</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1252,47 +1252,47 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.38</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-54.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>83194503.0</t>
+          <t>304806565.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2120.0</t>
+          <t>10166.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>10166</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-69.0</t>
+          <t>-66.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-66</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>616119.0</t>
+          <t>723326.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>71.26</t>
+          <t>72.82</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5765</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2116.251</t>
+          <t>16008.944</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>16009</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,22 +1761,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-70.0</t>
+          <t>-60.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-60</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>457883122.0</t>
+          <t>1174180469.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43183.312</t>
+          <t>47483.229</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>-3.70</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>15.99</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>195</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>43183</t>
+          <t>47483</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-62.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-7841219483.0</t>
+          <t>-972038836.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>146.15</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>114959</t>
+          <t>115269</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3652.0</t>
+          <t>4679.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,127 +738,127 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-664636.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>立碁</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>-65</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>741361.0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>立碁</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>53.41</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>78.33</t>
+          <t>74.06</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>4746</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7810.013</t>
+          <t>9903.218</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,52 +980,52 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>9903</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,22 +1035,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-56.0</t>
+          <t>-33.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-33</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1131310680.0</t>
+          <t>664326443.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>127.4</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>30.21</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9722</t>
+          <t>9692</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2838.038</t>
+          <t>1379.374</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,57 +1222,57 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>304806565.0</t>
+          <t>118699795.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.91</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.04</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7183</t>
+          <t>7108</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10166.0</t>
+          <t>8738.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>19.85</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,27 +1464,27 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10166</t>
+          <t>8738</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,42 +1494,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-66.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>723326.0</t>
+          <t>122632.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>95.56</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>72.82</t>
+          <t>73.39</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6091</t>
+          <t>6728</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16008.944</t>
+          <t>1914.052</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,77 +1706,77 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>16009</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-60.0</t>
+          <t>-52.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-60</t>
+          <t>-52</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1174180469.0</t>
+          <t>-474406615.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>77.46</t>
+          <t>74.86</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4598</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47483.229</t>
+          <t>49421.184</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.99</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,27 +1948,27 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2,233</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>47483</t>
+          <t>49421</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1978,22 +1978,22 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-62.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-972038836.0</t>
+          <t>-1009467529.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2073,22 +2073,22 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-10.56%</t>
+          <t>-14.95%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-42.76%</t>
+          <t>-43.90%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>150.22</t>
+          <t>144.87</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>115269</t>
+          <t>109691</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>53.27</t>
+          <t>52.89</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4679.0</t>
+          <t>21752.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>21752</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,32 +758,32 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,22 +813,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-664636.0</t>
+          <t>827466.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.78</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>74.06</t>
+          <t>74.53</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>4942</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9903.218</t>
+          <t>9009.943</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9903</t>
+          <t>9010</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1015,17 +1015,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>664326443.0</t>
+          <t>-161929607.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>126.6</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.21</t>
+          <t>30.07</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9692</t>
+          <t>9661</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1379.374</t>
+          <t>1346.551</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>47.9</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>-29.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>-27.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-43.0</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>False</t>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>118699795.0</t>
+          <t>-42104656.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.69</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7108</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8738.0</t>
+          <t>7768.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>-5.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19.85</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8738</t>
+          <t>7768</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1484,37 +1484,37 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>-5.96</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1539,22 +1539,22 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>122632.0</t>
+          <t>-807028.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>95.56</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>73.39</t>
+          <t>72.79</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1914.052</t>
+          <t>1685.941</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-52.0</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-474406615.0</t>
+          <t>-210684773.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>49421.184</t>
+          <t>28671.524</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>34.65</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2,233</t>
+          <t>190</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>49421</t>
+          <t>28672</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-3.32</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2023,22 +2023,22 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-1009467529.0</t>
+          <t>-892517443.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>144.87</t>
+          <t>155.28</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>109691</t>
+          <t>107367</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,157 +678,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12777.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>21752</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-1.81</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>8111</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21752.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-1.16</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>14.39</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>21752</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-2.05</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>827466.0</t>
+          <t>1788759.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -920,157 +920,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8033</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10193.428</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>64.2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8033</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9009.943</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>63.3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>9010</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-1.72</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-22.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-161929607.0</t>
+          <t>724674554.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>126.6</t>
+          <t>128.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9661</t>
+          <t>9799</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1346.551</t>
+          <t>2481.873</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>49.65</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-42104656.0</t>
+          <t>252721468.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.74</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7384</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,157 +1404,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9437.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>9437</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-3.49</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7768.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-5.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>7768</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-5.96</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-0.84</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-20.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-807028.0</t>
+          <t>537429.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>95.37</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>72.79</t>
+          <t>73.03</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6715</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1685.941</t>
+          <t>7060.521</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1726,47 +1726,47 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-47.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-210684773.0</t>
+          <t>369702479.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28671.524</t>
+          <t>42245.471</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>34.65</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>251</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>28672</t>
+          <t>42245</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-3.72</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-892517443.0</t>
+          <t>2228171856.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>155.28</t>
+          <t>157.97</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>107367</t>
+          <t>108297</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,22 +678,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8111</t>
+          <t>6438</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12777.0</t>
+          <t>2701.467</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>21752</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-4.83</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-7.87</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,92 +813,92 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1788759.0</t>
+          <t>3104639192.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>立碁</t>
+          <t>迅得</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>49.78</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>33.58%</t>
+          <t>25.63%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>162.91</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4942</t>
+          <t>13210</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>LED模組產品57.59%、其他產品23.90%、半導體產品18.51% (2024年)</t>
+          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>立碁-光電業-上櫃</t>
+          <t>迅得-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>62.74</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,29 +913,29 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** LED照明產業 - 封裝/模組、燈具/應用</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8033</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10193.428</t>
+          <t>16019.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>62.49</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>156.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -980,67 +980,67 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>16019</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-4.32</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,92 +1055,92 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>724674554.0</t>
+          <t>5997072.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>雷虎</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>128.4</t>
+          <t>15.3</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.75%</t>
+          <t>24.06%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-7.36%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>9799</t>
+          <t>43240</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>無人載具暨遙控模型產品65.94%、口腔醫療23.31%、無菌包材8.65%、其他1.63%、鋁船類產品0.48% (2024年)</t>
+          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>雷虎-其他-上市</t>
+          <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,29 +1155,29 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2481.873</t>
+          <t>31564.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,137 +1187,137 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>63.45</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>49.65</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>31564</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2482</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-1.49</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-29.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>252721468.0</t>
+          <t>5967560.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>宏致</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1327,52 +1327,52 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>49.29</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>24.94%</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7384</t>
+          <t>16085</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>連接器58.68%、連接線組18.44%、金屬沖壓製品16.29%、其他6.59% (2024年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>宏致-電子零組件業-上市</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>43.45</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,34 +1392,34 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造</t>
+          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9437.0</t>
+          <t>29874.326</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-7.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>58.11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>90.3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1464,67 +1464,67 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>132</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9437</t>
+          <t>29874</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>-7.82</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,92 +1539,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>537429.0</t>
+          <t>1256859020.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>精確</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>14.08%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.39%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>73.03</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6715</t>
+          <t>6018</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>鋁合金材料及零件100.00% (2024年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>精確-電機機械-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,29 +1639,29 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 其他電腦及週邊設備** 電機機械 - 金屬加工用機械** 汽車 - 其他** 醫療器材 - 電子零組件、塑膠零件、五金零件、塑化材料、金屬零件</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7060.521</t>
+          <t>25381.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>42.03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>230.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1706,67 +1706,67 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>121</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>25381</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-5.59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-16.34</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,97 +1776,97 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>12151018.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>上詮</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>369702479.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>銘旺科</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>9.28%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-21.03%</t>
+          <t>-11.20%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>23837</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光學面板95.45%、其他4.55% (2024年)</t>
+          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>24.42</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,34 +1876,34 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
+          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>42245.471</t>
+          <t>13201.077</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,142 +1913,142 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>93.1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>13201</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-5.41</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-8.12</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>42245</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-3.72</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>-0.60</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2228171856.0</t>
+          <t>2723792116.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>晟銘電</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>-14.95%</t>
+          <t>16.36%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-43.90%</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>157.97</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>108297</t>
+          <t>15374</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體(DRAM)99.69%、其他0.31% (2024年)</t>
+          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>南亞科-半導體業-上市</t>
+          <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>52.89</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 記憶體** 通信網路 - 記憶體** 半導體 - 記憶體IC、晶圓製造、DRAM製造</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,215 +461,200 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量</t>
+          <t>量能</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量_5均</t>
+          <t>短增量</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>量能</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>營業毛利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>營業利益率</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>營業毛利率</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>營業利益率</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>短增level</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>flag</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>短增level</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -678,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2701.467</t>
+          <t>2008.951</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,215 +688,200 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>160.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>161.0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-7.11</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-4.83</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-7.87</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>1248392390.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>迅得</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>3104639192.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>迅得</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>21.04</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>25.63%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>17.06</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>166.26</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>25.63%</t>
+          <t>13169</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>162.91</t>
+          <t>迅得-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>13210</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
+          <t>62.74</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>迅得-其他電子業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
-        <is>
-          <t>62.74</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -920,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16019.0</t>
+          <t>9146.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,215 +915,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>35.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>62.49</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>156.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>9146</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>16019</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>-3.24</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-4.32</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>6252093.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>5997072.0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>15.84</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>24.06%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.3</t>
+          <t>56.63</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>24.06%</t>
+          <t>44759</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>57.15</t>
+          <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>43240</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>台燿-電子零組件業-上櫃</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
-        <is>
-          <t>48.56</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -1162,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31564.0</t>
+          <t>15896.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,215 +1142,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>31.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>63.45</t>
+          <t>174.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15896</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>31564</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>10136095.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>5967560.0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>49.29</t>
+          <t>56.63</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>16178</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>57.15</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -1404,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29874.326</t>
+          <t>10875.824</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,215 +1369,200 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-7.82</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>58.11</t>
+          <t>90.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>90.3</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10876</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>29874</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-7.82</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>911864715.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1256859020.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>16.53</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
-        <is>
-          <t>29.54</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -1646,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25381.0</t>
+          <t>10639.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,215 +1596,200 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.03</t>
+          <t>222.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10639</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>25381</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>-13.69</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-5.59</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-16.34</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>7237897.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>上詮</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>12151018.0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.15%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>-1.66%</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>9.28%</t>
+          <t>23008</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-11.20%</t>
+          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>23837</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上詮-通信網路業-上櫃</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
-        <is>
-          <t>24.42</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -1888,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13201.077</t>
+          <t>6319.635</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,215 +1823,200 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.66</t>
+          <t>93.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>93.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>13201</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-7.43</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-8.12</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>3550809896.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>晟銘電</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2723792116.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>晟銘電</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>16.36%</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>111.61</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>16.36%</t>
+          <t>15457</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8.29%</t>
+          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>97.37</t>
+          <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>15374</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>晟銘電-電腦及週邊設備業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2008.951</t>
+          <t>6531.395</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>31.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>160.5</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -713,67 +713,67 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-7.11</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1248392390.0</t>
+          <t>1197992515.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>21.04</t>
+          <t>22.54</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>13169</t>
+          <t>14113</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -890,22 +890,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9146.0</t>
+          <t>18965.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35.68</t>
+          <t>38.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -940,27 +940,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9146</t>
+          <t>18965</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -970,37 +970,37 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>6252093.0</t>
+          <t>11512420.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1045,47 +1045,47 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>15.84</t>
+          <t>51.85</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>24.06%</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>56.63</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>44759</t>
+          <t>16922</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>台燿-電子零組件業-上櫃</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1110,29 +1110,29 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 銅箔基板</t>
+          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15896.0</t>
+          <t>17002.607</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>33.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>174.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1167,162 +1167,162 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15896</t>
+          <t>17003</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-201693714.0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>安馳</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-1.13</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>10136095.0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>高技</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>49.57</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>56.63</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>16178</t>
+          <t>6131</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1337,29 +1337,29 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10875.824</t>
+          <t>950.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,187 +1369,187 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>220.5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>90.5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-2.95</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-11.20</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>3156981.0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>上詮</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10876</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>911864715.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>安馳</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>21.75</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>17.15%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>-1.66%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>22853</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1564,29 +1564,29 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10639.0</t>
+          <t>13772.965</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>222.0</t>
+          <t>96.3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1621,27 +1621,27 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>96</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>13773</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>-4.15</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1651,37 +1651,37 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-3.80</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-13.69</t>
+          <t>-6.70</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1691,92 +1691,92 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>7237897.0</t>
+          <t>3169905392.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>晟銘電</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.9</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>17.15%</t>
+          <t>16.36%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>-1.66%</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>57.65</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>23008</t>
+          <t>15903</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
+          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>上詮-通信網路業-上櫃</t>
+          <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1790,233 +1790,6 @@
         </is>
       </c>
       <c r="AS6" t="inlineStr">
-        <is>
-          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6319.635</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>93.6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>-4.66</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-7.43</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>3550809896.0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>晟銘電</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>16.36%</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>8.29%</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>111.61</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>15457</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>晟銘電-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1197992515.0</t>
+          <t>4783402115.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18965.0</t>
+          <t>8292.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38.13</t>
+          <t>32.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182.0</t>
+          <t>161.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -940,67 +940,67 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>84</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18965</t>
+          <t>8292</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>45.73</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11512420.0</t>
+          <t>5928766.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1045,27 +1045,27 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>51.85</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>24.06%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>16922</t>
+          <t>44621</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17002.607</t>
+          <t>18965.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,77 +1142,77 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>33.07</t>
+          <t>38.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17003</t>
+          <t>18965</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>45.73</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1247,82 +1247,82 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-201693714.0</t>
+          <t>16501722.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>51.85</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>16922</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>950.0</t>
+          <t>17002.607</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>33.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>220.5</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1394,67 +1394,67 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>17003</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-11.20</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1464,92 +1464,92 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3156981.0</t>
+          <t>-1469309289.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>17.15%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-1.66%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>22853</t>
+          <t>6131</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>上詮-通信網路業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -1576,220 +1576,447 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>220.5</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-2.95</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-11.20</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11096092.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>上詮</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>17.15%</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>22853</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>上詮-通信網路業-上櫃</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>3013</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>13772.965</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>13.21</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>96.3</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>13773</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4.24</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>-4.15</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>-3.80</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>-6.70</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>47.0</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>3169905392.0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>5552700529.0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>0.62</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>11.71</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>23.9</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>57.65</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>15903</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>22.73</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6531.395</t>
+          <t>8513.902</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>41.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>174.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -713,17 +713,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6531</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.20</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>4783402115.0</t>
+          <t>5930235620.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>22.54</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>14113</t>
+          <t>14277</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8292.0</t>
+          <t>5726.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32.35</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>161.5</t>
+          <t>163.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>5726</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -960,32 +960,32 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1010,22 +1010,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>5928766.0</t>
+          <t>7885306.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>44621</t>
+          <t>45174</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18965.0</t>
+          <t>9927.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,139 +1142,139 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38.13</t>
+          <t>19.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>9927</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16939121.0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>高技</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>18965</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>45.73</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>16501722.0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>高技</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>12.84</t>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51.85</t>
+          <t>52.71</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>16922</t>
+          <t>17201</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17002.607</t>
+          <t>17282.624</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>33.07</t>
+          <t>33.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>95.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1394,17 +1394,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>105</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17003</t>
+          <t>17283</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-1469309289.0</t>
+          <t>4860407123.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1499,37 +1499,37 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.93</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>14.09%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>28.37</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>950.0</t>
+          <t>802.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>220.5</t>
+          <t>229.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>802</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-11.20</t>
+          <t>-8.77</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11096092.0</t>
+          <t>8119707.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>22853</t>
+          <t>23786</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13772.965</t>
+          <t>18204.118</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>17.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96.3</t>
+          <t>105.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1848,67 +1848,67 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>91</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13773</t>
+          <t>18204</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-4.15</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-3.80</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-6.70</t>
+          <t>-5.83</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>5552700529.0</t>
+          <t>6829400734.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>23.9</t>
+          <t>26.18</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>57.65</t>
+          <t>49.16</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15903</t>
+          <t>17422</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8513.902</t>
+          <t>2816.299</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,42 +688,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41.53</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>174.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -733,32 +733,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-5.20</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>5930235620.0</t>
+          <t>73803.44394403286</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,37 +818,37 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>17.06</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>25.63%</t>
+          <t>23.98%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>170.06</t>
+          <t>170.19</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>14277</t>
+          <t>13949</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>62.74</t>
+          <t>65.83</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -890,142 +890,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2744.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>162.5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>5726</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>254.44</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6274</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5726.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>163.5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>5726</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>7885306.0</t>
+          <t>2727.340829452748</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9927.0</t>
+          <t>6908.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19.96</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>185.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>85</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1192,27 +1192,27 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16939121.0</t>
+          <t>4269.559696268457</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>-4.46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17282.624</t>
+          <t>10994.471</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>33.62</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>95.4</t>
+          <t>91.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1394,52 +1394,52 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17283</t>
+          <t>10994</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-6.14</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>4860407123.0</t>
+          <t>61873.49085836357</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>17.93</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>802.0</t>
+          <t>516.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>229.5</t>
+          <t>231.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-8.77</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>8119707.0</t>
+          <t>2870.296151967598</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18204.118</t>
+          <t>40511.404</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.45</t>
+          <t>38.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>105.5</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>172</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18204</t>
+          <t>40511</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1868,32 +1868,32 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-5.83</t>
+          <t>-4.86</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>6829400734.0</t>
+          <t>105996.5862186137</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>49.16</t>
+          <t>44.42</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>17422</t>
+          <t>17835</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -803,85 +813,95 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>81294.1482026843</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>18.95</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>25.45</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>65.83</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -1030,85 +1050,95 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>3054.302375338762</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>23.07</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>15.98</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>40.05</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>45174</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>48.56</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -1257,85 +1287,95 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>4654.373749496273</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12.84</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>52.71</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>10.41%</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>40.05</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>17201</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>26.26</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -1484,85 +1524,95 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>54140.53762200741</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>25.9</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>17.12</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>16.08</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>28.37</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -1711,85 +1761,95 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>3485.749417270266</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>86.14</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>23786</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>24.34</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -1938,85 +1998,95 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>111177.8596663922</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>11.71</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>26.8</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>17835</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>22.73</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,85 +586,90 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Volume_%</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -673,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2816.299</t>
+          <t>2566.733</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,12 +703,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -723,12 +728,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,47 +748,47 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,22 +803,22 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>73803.44394403286</t>
+          <t>76255.87</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>81294.1482026843</t>
+          <t>86305.26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -823,85 +828,90 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>迅得</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>18.95</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25.45</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>23.98%</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>7.95%</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>170.19</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>165.18</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>13949</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>迅得-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>65.83</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -910,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2744.0</t>
+          <t>3953.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>162.5</t>
+          <t>155.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -955,22 +965,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>56</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5726</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -980,47 +990,47 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-1.87</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>254.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-31.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1035,22 +1045,22 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2727.340829452748</t>
+          <t>2369.63</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3054.302375338762</t>
+          <t>2572.78</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,85 +1070,90 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>台燿</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>23.07</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>15.98</t>
-        </is>
-      </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>24.06%</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>14.68%</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>40.05</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>45174</t>
+          <t>35.56</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>44207</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
       <c r="AR3" t="inlineStr">
         <is>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
           <t>48.56</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="AU3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -1147,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6908.0</t>
+          <t>7287.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>178.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1192,22 +1207,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9927</t>
+          <t>11187</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1217,32 +1232,32 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1252,12 +1267,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-16.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1277,17 +1292,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>4269.559696268457</t>
+          <t>3756.5</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>4654.373749496273</t>
+          <t>4536.51</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1297,85 +1312,90 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>高技</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>52.71</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>42.45</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>20.70%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>14.66%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17201</t>
+          <t>35.56</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
+          <t>17247</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
           <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
       <c r="AS4" t="inlineStr">
         <is>
+          <t>28.2</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="AU4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -1384,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-4.46</t>
+          <t>-3.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10994.471</t>
+          <t>5111.207</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,7 +1429,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1419,7 +1439,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>91.1</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1434,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10994</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1454,32 +1474,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-6.14</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1489,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1514,17 +1534,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>61873.49085836357</t>
+          <t>64246.93</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>54140.53762200741</t>
+          <t>25390.16</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1534,85 +1554,90 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>安馳</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>25.9</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>17.12</t>
-        </is>
-      </c>
       <c r="AK5" t="inlineStr">
         <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>16.08</t>
-        </is>
-      </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
           <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>安馳-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>28.37</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -1621,7 +1646,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,12 +1656,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>516.0</t>
+          <t>560.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,17 +1671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>231.0</t>
+          <t>226.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1666,22 +1691,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>248</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1691,32 +1716,32 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1726,12 +1751,12 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-91.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1746,22 +1771,22 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-91</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2870.296151967598</t>
+          <t>3206.09</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3485.749417270266</t>
+          <t>3487.92</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1771,85 +1796,90 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>上詮</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>17.15%</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>-1.66%</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>23786</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
+          <t>23682</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
           <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>24.34</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="AU6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -1858,7 +1888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1868,12 +1898,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40511.404</t>
+          <t>7974.061</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38.84</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1908,17 +1938,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>40511</t>
+          <t>7974</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1928,47 +1958,47 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-3.33</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-4.86</t>
+          <t>-2.98</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1988,17 +2018,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>105996.5862186137</t>
+          <t>94854.84</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>111177.8596663922</t>
+          <t>101762.34</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2008,85 +2038,90 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
           <t>晟銘電</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
           <t>11.71</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>26.8</t>
-        </is>
-      </c>
       <c r="AK7" t="inlineStr">
         <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>16.36%</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>8.29%</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>44.42</t>
-        </is>
-      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>17835</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
+          <t>17339</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
           <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>22.73</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,140 +536,135 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Volume_Price_Change_sum_12</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum_12</t>
+          <t>Volume_Price_Change_break</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_break</t>
+          <t>Volume_%</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_%</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>營業毛利率</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>營業毛利率</t>
+          <t>營業利益率</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>營業利益率</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>短增level</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>短增level</t>
+          <t>flag</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -678,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2566.733</t>
+          <t>3232.243</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>170.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,17 +723,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -748,7 +743,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -758,160 +753,155 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>76323.64</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>91244.61</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>76255.87</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>86305.26</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>迅得</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>迅得</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>25.52</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>23.98%</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>23.98%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>164.27</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>165.18</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>13949</t>
+          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
+          <t>迅得-其他電子業-上市</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>迅得-其他電子業-上市</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>65.83</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>65.83</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
         </is>
@@ -920,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.82</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3953.0</t>
+          <t>3530.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>155.5</t>
+          <t>157.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,22 +955,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4596</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -990,170 +980,165 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-31.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2407.16</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2741.82</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2369.63</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2572.78</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>台燿</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>23.07</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>24.06%</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>24.06%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>34.99</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>35.56</t>
+          <t>43378</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>44207</t>
+          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
+          <t>台燿-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>台燿-電子零組件業-上櫃</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>48.56</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -1162,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7287.0</t>
+          <t>3788.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1172,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1182,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>178.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1207,32 +1192,32 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11187</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1242,160 +1227,155 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-35.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-35</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>3351.75</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>4576.76</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>3756.5</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>4536.51</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>20.70%</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>20.70%</t>
+          <t>14.66%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>14.66%</t>
+          <t>34.99</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>35.56</t>
+          <t>16457</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>17247</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>28.2</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
         <is>
           <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -1404,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5111.207</t>
+          <t>3505.167</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,7 +1409,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1439,7 +1419,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>87.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1434,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,170 +1454,165 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-3.43</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>-37.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>52970.84</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>43619.96</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>64246.93</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>25390.16</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>14.09%</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>14.09%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>28.37</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>28.37</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -1646,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1656,12 +1631,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>560.0</t>
+          <t>297.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,17 +1646,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>226.0</t>
+          <t>226.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1691,22 +1666,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>297</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1716,170 +1691,165 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-92.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-91.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-92</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>3114.47</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>3489.63</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-91</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>3206.09</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>3487.92</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>上詮</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上詮</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.15%</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>17.15%</t>
+          <t>-1.66%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-1.66%</t>
+          <t>59.97</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>23475</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>23682</t>
+          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
+          <t>上詮-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上詮-通信網路業-上櫃</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
@@ -1888,7 +1858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1898,12 +1868,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7974.061</t>
+          <t>11494.303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1883,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>109.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1938,17 +1908,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7974</t>
+          <t>11494</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1958,170 +1928,165 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-3.33</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-2.98</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>100029.9</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>109555.46</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>94854.84</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>101762.34</t>
-        </is>
-      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>晟銘電</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>晟銘電</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>27.17</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>16.36%</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>16.36%</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8.29%</t>
+          <t>44.12</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>18083</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17339</t>
+          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
+          <t>晟銘電-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>晟銘電-電腦及週邊設備業-上市</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>22.73</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>短增右下</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,22 +673,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6438</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3232.243</t>
+          <t>9057.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>170.5</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,62 +723,62 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>78</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>9057</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-43.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -788,27 +788,27 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-43</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>76323.64</t>
+          <t>821.83</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>91244.61</t>
+          <t>1024.77</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,77 +818,77 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.2</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>迅得</t>
+          <t>華星光</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>25.52</t>
+          <t>37.28</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>23.98%</t>
+          <t>22.46%</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>18.48%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>164.27</t>
+          <t>61.28</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>23943</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>印刷電路板自動化設備63.61%、半導體自動化設備34.26%、AMHS-智動化物料搬運系統1.17%、液晶面板自動化設備0.97% (2024年)</t>
+          <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>迅得-其他電子業-上市</t>
+          <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>65.83</t>
+          <t>23.91</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -903,29 +903,29 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備</t>
+          <t>** 通信網路 - 主/被動元件</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3530.0</t>
+          <t>59784.492</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -960,62 +960,62 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1,918</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>59784</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1025,27 +1025,27 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2407.16</t>
+          <t>60973.17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2741.82</t>
+          <t>62920.57</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1055,77 +1055,77 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>23.07</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>24.06%</t>
+          <t>21.00%</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>15.86%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>34.99</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>43378</t>
+          <t>290892</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>銅箔基板,粘合片及多層壓合100.00% (2024年)</t>
+          <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>台燿-電子零組件業-上櫃</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>48.56</t>
+          <t>100.22</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1135,34 +1135,34 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 銅箔基板</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3788.0</t>
+          <t>20529.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,197 +1172,197 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>256.5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>177.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>20530</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>3788</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-2.82</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-35.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>68446.63</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>75477.07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-35</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>3351.75</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>4576.76</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>高技</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>50.79</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.70%</t>
+          <t>30.27%</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>14.66%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>34.99</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>16457</t>
+          <t>555333</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>284.07</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1372,34 +1372,34 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>** 通信網路 - 印刷電路板** 印刷電路板 - 硬板、軟板、IC載板製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3505.167</t>
+          <t>13425.679</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,137 +1409,137 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>13426</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>3505</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-37.0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>11676.91</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-11176.52</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>52970.84</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>43619.96</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1549,57 +1549,57 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>72.92</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.09%</t>
+          <t>8.31%</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>4897</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>28.37</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1614,481 +1614,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3363</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>297.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>226.5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-92.0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-05-21</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-92</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>3114.47</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>3489.63</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>上詮</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>17.15%</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>-1.66%</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>23475</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>光纖被動元組件,光纖測試儀99.23%、其他租賃業務0.77% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>上詮-通信網路業-上櫃</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>通信網路業右上</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>24.34</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>** 通信網路 - 光通訊設備(如光纖電纜、光傳輸設備)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11494.303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>11494</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>-2.09</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>100029.9</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>109555.46</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>晟銘電</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>11.71</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>27.17</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>16.36%</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>8.29%</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>44.12</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>18083</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>電腦及伺服器外殼96.84%、開模服務3.16% (2024年)</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>晟銘電-電腦及週邊設備業-上市</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9057.0</t>
+          <t>9920.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,87 +698,87 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>166.5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>170.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9057</t>
+          <t>9920</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>-47.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>821.83</t>
+          <t>-428.23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1024.77</t>
+          <t>814.35</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>36.51</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -863,12 +863,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>61.28</t>
+          <t>60.24</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59784.492</t>
+          <t>178996.807</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>54.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>86.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -960,17 +960,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1,918</t>
+          <t>2,016</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>178997</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -980,42 +980,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1030,22 +1030,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>60973.17</t>
+          <t>71451.41</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>62920.57</t>
+          <t>74695.83</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>290892</t>
+          <t>303464</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20529.87</t>
+          <t>29888.144</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.34</t>
+          <t>26.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>256.5</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>559</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>29888</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>68446.63</t>
+          <t>62265.38</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>75477.07</t>
+          <t>79723.26</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>555333</t>
+          <t>562911</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13425.679</t>
+          <t>8493.882</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>69.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13426</t>
+          <t>8494</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1464,32 +1464,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>11676.91</t>
+          <t>-18161.66</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-11176.52</t>
+          <t>-18241.35</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>72.92</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>27.32</t>
+          <t>27.21</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>4876</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9920.0</t>
+          <t>30249.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>42.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>166.5</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,62 +723,62 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>128</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9920</t>
+          <t>30249</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-5.69</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-47.0</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,32 +793,32 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-428.23</t>
+          <t>1146.19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>814.35</t>
+          <t>672.33</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>36.51</t>
+          <t>36.62</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -863,12 +863,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>60.24</t>
+          <t>60.69</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>23450</t>
+          <t>23520</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>178996.807</t>
+          <t>157042.134</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,127 +935,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>54.27</t>
+          <t>47.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>83.7</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>157042</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>86.9</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2,016</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>178997</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-38559.06</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>63982.29</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2025-05-02</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>71451.41</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>74695.83</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>303464</t>
+          <t>292289</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29888.144</t>
+          <t>27921.207</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>26.70</t>
+          <t>24.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>256.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>421</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29888</t>
+          <t>27921</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1217,42 +1217,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>62265.38</t>
+          <t>-40403.99</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>79723.26</t>
+          <t>73603.61</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>562911</t>
+          <t>554251</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-3.71</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8493.882</t>
+          <t>10178.928</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>69.7</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1434,62 +1434,62 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8494</t>
+          <t>10179</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-18161.66</t>
+          <t>-18306.88</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-18241.35</t>
+          <t>-15103.93</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>72.6</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -673,7 +673,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30249.0</t>
+          <t>10758.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>42.94</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,17 +723,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -743,42 +743,42 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,32 +793,32 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1146.19</t>
+          <t>987.3</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>672.33</t>
+          <t>1208.09</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>36.18</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -863,12 +863,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>60.69</t>
+          <t>60.21</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>23520</t>
+          <t>23239</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>157042.134</t>
+          <t>60073.015</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>47.62</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>83.7</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -960,17 +960,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>322</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>157042</t>
+          <t>60073</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -980,42 +980,42 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1030,22 +1030,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-38559.06</t>
+          <t>-49968.05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>63982.29</t>
+          <t>44719.79</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>292289</t>
+          <t>286353</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27921.207</t>
+          <t>15762.398</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24.94</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>256.0</t>
+          <t>253.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>269</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>15762</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1217,42 +1217,42 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-39.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-40403.99</t>
+          <t>-48165.22</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>73603.61</t>
+          <t>55941.11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>17.56</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>554251</t>
+          <t>547756</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.71</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10178.928</t>
+          <t>6673.803</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10179</t>
+          <t>6674</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1454,42 +1454,42 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-4.70</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-29.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-18306.88</t>
+          <t>-24373.73</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-15103.93</t>
+          <t>-7083.36</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>66.46</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,135 +536,140 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>MACD_golden_cross</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>MA_break</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum_12</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_break</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_%</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -773,135 +778,140 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>-18.0</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>-18</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>987.3</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>1208.09</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>-0.18</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>華星光</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>7.58</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>36.18</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>22.46%</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>18.48%</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>60.21</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>23239</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>光通訊主動元件及模組94.35%、晶粒3.95%、其他1.70% (2024年)</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>華星光-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>23.91</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>** 通信網路 - 主/被動元件</t>
         </is>
@@ -1010,135 +1020,140 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>-9.0</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2025-05-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>-9</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>-49968.05</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>44719.79</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>-2.12</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>9.15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>13.03</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>4.58</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>21.00%</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>15.86%</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>17.31</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>286353</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>貨物運輸92.21%、其他5.08%、艙租1.68%、傭船1.03% (2024年)</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>陽明-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>100.22</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -1247,135 +1262,140 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>-39.0</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>-39</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>-48165.22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>55941.11</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>-1.86</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12.85</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>50.79</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>30.27%</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>26.68%</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>17.31</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>547756</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>長榮-航運業-上市</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>284.07</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
@@ -1484,135 +1504,140 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>-29.0</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>-29</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>-24373.73</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>-7083.36</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>-2.44</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>華經</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>11.16</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>66.46</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>26.12</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>4464</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>華經-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>18.22</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10758.0</t>
+          <t>7665.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,17 +728,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,22 +803,22 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>987.3</t>
+          <t>647.57</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1208.09</t>
+          <t>739.85</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.18</t>
+          <t>35.31</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.21</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>23239</t>
+          <t>22675</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60073.015</t>
+          <t>69555.459</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>290</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>60073</t>
+          <t>69555</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,22 +1000,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1045,22 +1045,22 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-49968.05</t>
+          <t>-51333.06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>44719.79</t>
+          <t>23266.32</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-3.21</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>286353</t>
+          <t>283908</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,147 +1172,147 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18242.127</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15762.398</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18242</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-33.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>253.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>15762</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>10.19</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-46739.9</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>35357.62</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-39.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-39</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>-48165.22</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>55941.11</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-1.86</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>547756</t>
+          <t>539095</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>-3.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6673.803</t>
+          <t>5204.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>61.8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6674</t>
+          <t>5204</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,32 +1474,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4.70</t>
+          <t>-5.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-40</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-24373.73</t>
+          <t>-21721.22</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-7083.36</t>
+          <t>-12951.08</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>66.46</t>
+          <t>64.38</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7665.0</t>
+          <t>8001.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>163.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,17 +728,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>647.57</t>
+          <t>1005.54</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>739.85</t>
+          <t>643.33</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.31</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>61.14</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22675</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-2.11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69555.459</t>
+          <t>86772.791</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>79.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,52 +970,52 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>2,794</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>69555</t>
+          <t>86773</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-51333.06</t>
+          <t>-84204.02</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>23266.32</t>
+          <t>-31504.06</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>283908</t>
+          <t>277971</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18242.127</t>
+          <t>23875.171</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>249.0</t>
+          <t>244.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>1,604</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18242</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1232,32 +1232,32 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-46739.9</t>
+          <t>-70008.26</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>35357.62</t>
+          <t>-22629.4</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>17.14</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>539095</t>
+          <t>529353</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.07</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5204.13</t>
+          <t>5020.029</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61.8</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5204</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,32 +1474,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-5.99</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-4.41</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-10.21</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-112.17</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-40</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-21721.22</t>
+          <t>-20343.32</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-12951.08</t>
+          <t>-19283.37</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>64.38</t>
+          <t>63.65</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8001.0</t>
+          <t>8852.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>163.5</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,52 +728,52 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8852</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-15.68</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1005.54</t>
+          <t>-553.19</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>643.33</t>
+          <t>709.83</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>35.09</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>61.14</t>
+          <t>59.18</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>22534</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.11</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86772.791</t>
+          <t>62938.427</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>79.6</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2,794</t>
+          <t>284</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>86773</t>
+          <t>62938</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -985,37 +985,37 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-11.96</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1040,27 +1040,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-84204.02</t>
+          <t>-73649.74</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-31504.06</t>
+          <t>-58783.87</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>277971</t>
+          <t>276225</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23875.171</t>
+          <t>14575.424</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>244.5</t>
+          <t>247.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,52 +1212,52 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1,604</t>
+          <t>164</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>14575</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-33.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-70008.26</t>
+          <t>-52331.46</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-22629.4</t>
+          <t>-46749.68</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.14</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>529353</t>
+          <t>534765</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5020.029</t>
+          <t>20343.534</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,52 +1454,52 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>20344</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-4.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-10.21</t>
+          <t>-10.36</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-112.17</t>
+          <t>-133.80</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-25.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-20343.32</t>
+          <t>-4375.94</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-19283.37</t>
+          <t>-13309.6</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>66.15</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.17</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8852.0</t>
+          <t>16698.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,17 +728,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>94</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>16698</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>-3.51</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-15.68</t>
+          <t>-49.88</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,27 +798,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-553.19</t>
+          <t>-1073.65</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>709.83</t>
+          <t>622.32</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.09</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>59.18</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62938.427</t>
+          <t>70166.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>62938</t>
+          <t>70166</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -990,32 +990,32 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-11.96</t>
+          <t>-16.91</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-21.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-21</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-73649.74</t>
+          <t>-58244.03</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-58783.87</t>
+          <t>-43981.29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>276225</t>
+          <t>279368</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14575.424</t>
+          <t>14469.172</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>216</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14575</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1232,32 +1232,32 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>-6.47</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.19</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-52331.46</t>
+          <t>-37941.72</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-46749.68</t>
+          <t>-29124.83</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>534765</t>
+          <t>546673</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20343.534</t>
+          <t>17760.488</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>72</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>20344</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,32 +1474,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-10.36</t>
+          <t>-9.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-133.80</t>
+          <t>-144.91</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-25.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,27 +1534,27 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-4375.94</t>
+          <t>16521.71</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-13309.6</t>
+          <t>4864.63</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>66.15</t>
+          <t>68.75</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>4617</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16698.0</t>
+          <t>7533.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>10.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>159.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,17 +728,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16698</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.51</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-49.88</t>
+          <t>-60.33</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-1073.65</t>
+          <t>-746.2</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>622.32</t>
+          <t>457.13</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70166.29</t>
+          <t>60182.818</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>21.28</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>78.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,52 +970,52 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>70166</t>
+          <t>60183</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-16.91</t>
+          <t>-24.86</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-58244.03</t>
+          <t>-58017.72</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-43981.29</t>
+          <t>-54142.69</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>279368</t>
+          <t>274130</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14469.172</t>
+          <t>25870.205</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>23.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>251.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>442</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>25870</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1227,37 +1227,37 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>-8.47</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-37941.72</t>
+          <t>-44134.44</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-29124.83</t>
+          <t>-46193.82</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>546673</t>
+          <t>544508</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17760.488</t>
+          <t>17780.761</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>65.8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>17781</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,22 +1474,22 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>-2.72</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-7.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-144.91</t>
+          <t>-163.47</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,27 +1534,27 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16521.71</t>
+          <t>11185.59</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4864.63</t>
+          <t>-15312.76</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>68.75</t>
+          <t>68.54</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>26.67</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4617</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7533.0</t>
+          <t>6574.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -748,32 +748,32 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-60.33</t>
+          <t>-70.46</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-746.2</t>
+          <t>-716.95</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>457.13</t>
+          <t>-217.57</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-2.3</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>57.27</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60182.818</t>
+          <t>105021.115</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>60183</t>
+          <t>105021</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -990,32 +990,32 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>-5.11</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-24.86</t>
+          <t>-44.09</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-21.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-58017.72</t>
+          <t>-61828.99</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-54142.69</t>
+          <t>-56823.88</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>274130</t>
+          <t>259463</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-5.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25870.205</t>
+          <t>50327.391</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>23.11</t>
+          <t>44.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>251.5</t>
+          <t>238.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1,562</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>25870</t>
+          <t>50327</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1232,32 +1232,32 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-8.47</t>
+          <t>-19.66</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-44134.44</t>
+          <t>-58955.93</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-46193.82</t>
+          <t>-53199.72</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>544508</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-3.92</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17780.761</t>
+          <t>6434.358</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>65.8</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17781</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1474,32 +1474,32 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-2.72</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>-6.52</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-163.47</t>
+          <t>-247.79</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11185.59</t>
+          <t>10384.33</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>-15312.76</t>
+          <t>-13490.31</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>68.54</t>
+          <t>65.83</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4422</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -496,112 +496,112 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>價能</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>MA5_%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>均價long_%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MA_break</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_golden_cross</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Oscillator</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_sum</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_%</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Type0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Type1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Type2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>淨值倍率</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>貝他值</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>價能</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MA5_%</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_%</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>MACD-SL</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_golden_cross</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>MA_break</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Oscillator</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum_12</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_break</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_%</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Type0</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Type1</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Type2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,167 +688,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-1.89</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9617.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6574.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>156.5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>159.5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9617</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-2.23</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-102.80</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>6574</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-2.64</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>-70.46</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-1039.09</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-185.2</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-17.0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-20.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>-716.95</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>-217.57</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>-4.61</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>華星光</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>華星光</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34.98</t>
+          <t>34.32</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>57.27</t>
+          <t>56.62</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22464</t>
+          <t>22041</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>105021.115</t>
+          <t>62570.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31.84</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,127 +970,127 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1,269</t>
+          <t>478</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>105021</t>
+          <t>62571</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-5.11</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-64.23</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-44.09</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-18.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-58008.84</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-72302.63</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>-61828.99</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>-56823.88</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>259463</t>
+          <t>256670</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50327.391</t>
+          <t>30707.445</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>238.0</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,127 +1212,127 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1,562</t>
+          <t>727</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>50327</t>
+          <t>30707</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-5.25</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>-29.69</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-19.66</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-32.0</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-61376.41</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-65833.96</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>-58955.93</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>-53199.72</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>515280</t>
+          <t>510950</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.92</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6434.358</t>
+          <t>5273.576</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,127 +1454,127 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6434</t>
+          <t>5274</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>-4.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-6.52</t>
+          <t>-553.24</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-247.79</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>10135.34</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-12472.48</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>10384.33</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-13490.31</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>華經</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>65.83</t>
+          <t>65.31</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.21</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4422</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9617.0</t>
+          <t>10718.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>15.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>156.5</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,47 +728,47 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9617</t>
+          <t>10718</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.87</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.66</t>
+          <t>-3.94</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-102.80</t>
+          <t>-163.98</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1039.09</t>
+          <t>-1065.74</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-185.2</t>
+          <t>-849.07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34.32</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>56.62</t>
+          <t>57.37</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-2.87</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62570.54</t>
+          <t>83835.455</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>73.5</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,57 +970,57 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>859</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>83835</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-5.48</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-5.39</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-64.23</t>
+          <t>-95.35</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-58008.84</t>
+          <t>-59714.64</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-72302.63</t>
+          <t>-67045.22</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>256670</t>
+          <t>249336</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30707.445</t>
+          <t>31268.628</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>27.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>234.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,57 +1212,57 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>599</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>30707</t>
+          <t>31269</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-29.69</t>
+          <t>-39.39</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-61376.41</t>
+          <t>-77110.57</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-65833.96</t>
+          <t>-65896.22</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>510950</t>
+          <t>506620</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5273.576</t>
+          <t>4634.099</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,57 +1454,57 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>-3.47</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-4.93</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4.99</t>
+          <t>-5.00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-553.24</t>
+          <t>-1309.83</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>10135.34</t>
+          <t>-14537.37</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-12472.48</t>
+          <t>-10735.08</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>63.02</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>25.58</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10718.0</t>
+          <t>14566.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.21</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,57 +728,57 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>185</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10718</t>
+          <t>14566</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-3.87</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-3.94</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-163.98</t>
+          <t>-67.17</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-1065.74</t>
+          <t>-370.68</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-849.07</t>
+          <t>-803.16</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>57.37</t>
+          <t>60.65</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21830</t>
+          <t>23661</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.87</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83835.455</t>
+          <t>46359.299</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,57 +970,57 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>337</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>83835</t>
+          <t>46359</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.38</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-5.48</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-5.39</t>
+          <t>-7.32</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-95.35</t>
+          <t>-129.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-59714.64</t>
+          <t>-63305.71</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-67045.22</t>
+          <t>-60827.54</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>249336</t>
+          <t>252130</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31268.628</t>
+          <t>23901.065</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>234.0</t>
+          <t>236.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,57 +1212,57 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>444</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>31269</t>
+          <t>23901</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-3.56</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-39.39</t>
+          <t>-45.06</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-77110.57</t>
+          <t>-74462.4</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-65896.22</t>
+          <t>-59094.09</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>17.18</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>506620</t>
+          <t>512032</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4634.099</t>
+          <t>5517.173</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,57 +1454,57 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4634</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-4.93</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-5.00</t>
+          <t>-5.61</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1309.83</t>
+          <t>-301.17</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-15.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-14537.37</t>
+          <t>-19332.11</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-10735.08</t>
+          <t>-7098.02</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>63.02</t>
+          <t>63.75</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4282</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14566.0</t>
+          <t>48766.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>69.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>184.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,57 +728,57 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>304</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>14566</t>
+          <t>48766</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.49</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-67.17</t>
+          <t>122.94</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,27 +803,27 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-370.68</t>
+          <t>1169.27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-803.16</t>
+          <t>636.55</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>40.46</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>60.65</t>
+          <t>63.72</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>23661</t>
+          <t>25985</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46359.299</t>
+          <t>60101.889</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>24.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,52 +970,52 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>260</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>46359</t>
+          <t>60102</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-7.32</t>
+          <t>-8.55</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-129.53</t>
+          <t>-182.20</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-63305.71</t>
+          <t>-46700.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-60827.54</t>
+          <t>-52663.77</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>252130</t>
+          <t>252479</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23901.065</t>
+          <t>28369.123</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>236.5</t>
+          <t>241.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,57 +1212,57 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>392</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23901</t>
+          <t>28369</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-3.56</t>
+          <t>-4.54</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-45.06</t>
+          <t>-44.42</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-26.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-74462.4</t>
+          <t>-53665.67</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-59094.09</t>
+          <t>-49131.73</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.18</t>
+          <t>17.29</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>512032</t>
+          <t>522858</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5517.173</t>
+          <t>3968.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,57 +1454,57 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-5.61</t>
+          <t>-6.09</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-301.17</t>
+          <t>-155.82</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>-44.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1529,17 +1529,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-19332.11</t>
+          <t>-9495.56</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>-7098.02</t>
+          <t>4180.41</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-3.27</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>63.75</t>
+          <t>64.58</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>26.17</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4282</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">

--- a/Result/checkdangchong.xlsx
+++ b/Result/checkdangchong.xlsx
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48766.0</t>
+          <t>45692.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.22</t>
+          <t>64.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>184.5</t>
+          <t>182.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -728,69 +728,69 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>48766</t>
+          <t>45692</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>122.94</t>
+          <t>136.85</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
           <t>0</t>
@@ -803,27 +803,27 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1169.27</t>
+          <t>-334.44</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>636.55</t>
+          <t>-559.4</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>40.46</t>
+          <t>40.02</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>63.72</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>25985</t>
+          <t>25703</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60101.889</t>
+          <t>42190.336</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24.60</t>
+          <t>17.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -970,57 +970,57 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>420</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>60102</t>
+          <t>42190</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-8.55</t>
+          <t>-8.70</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-182.20</t>
+          <t>-301.73</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-17.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-46700.0</t>
+          <t>-34623.38</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-52663.77</t>
+          <t>-50107.9</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>252479</t>
+          <t>251431</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-1.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28369.123</t>
+          <t>22455.665</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>28.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>241.5</t>
+          <t>238.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1212,57 +1212,57 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>501</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>28369</t>
+          <t>22456</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>-1.68</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4.54</t>
+          <t>-4.45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-44.42</t>
+          <t>-48.05</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-53665.67</t>
+          <t>-38831.14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-49131.73</t>
+          <t>-49918.23</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>17.29</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>522858</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3968.12</t>
+          <t>26821.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1454,57 +1454,57 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>87</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3968</t>
+          <t>26822</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-6.09</t>
+          <t>-4.32</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-155.82</t>
+          <t>-50.32</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-44.0</t>
+          <t>-18.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1529,27 +1529,27 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>-9495.56</t>
+          <t>18692.95</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>4180.41</t>
+          <t>15120.53</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>64.58</t>
+          <t>71.04</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.17</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4338</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
